--- a/投資報酬計算表.xlsx
+++ b/投資報酬計算表.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="98">
   <si>
     <t>被動收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,16 @@
     <t>alen1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>alensu40817a</t>
+  </si>
+  <si>
+    <t>clarify1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽明(2609)</t>
+  </si>
 </sst>
 </file>
 
@@ -400,7 +410,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,6 +430,13 @@
       <sz val="12"/>
       <color rgb="FF565656"/>
       <name val="Microsoft jhenghei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -498,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,6 +563,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +698,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -803,11 +822,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="170794584"/>
-        <c:axId val="170203448"/>
+        <c:axId val="323073032"/>
+        <c:axId val="323070288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170794584"/>
+        <c:axId val="323073032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +869,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170203448"/>
+        <c:crossAx val="323070288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -858,7 +877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170203448"/>
+        <c:axId val="323070288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +914,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170794584"/>
+        <c:crossAx val="323073032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3411,7 +3430,7 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5021,16 +5040,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5091,6 +5110,14 @@
       </c>
       <c r="C9" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5">
+      <c r="B10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +5646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -5878,7 +5905,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I36" sqref="I36"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8023,18 +8050,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q125"/>
+  <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="17" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -8126,12 +8152,14 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <f>SUM(F5:Q5)</f>
-        <v>10575</v>
+        <v>11247</v>
       </c>
       <c r="F5" s="3">
         <v>10575</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>672</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -8203,13 +8231,15 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <f>SUM(F9:Q9)</f>
-        <v>-13385</v>
+        <v>-26770</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
         <v>-13385</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>-13385</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -8232,7 +8262,7 @@
         <v>891354</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ref="E10:E11" si="0">-D10</f>
+        <f t="shared" ref="E10:E21" si="0">-D10</f>
         <v>-891354</v>
       </c>
     </row>
@@ -8253,261 +8283,373 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-10227</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-594236</v>
+      </c>
+      <c r="E12" s="3">
+        <f>$C12+ABS($D12)</f>
+        <v>584009</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3">
+        <v>577730</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>-577730</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3">
+        <v>304</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-445177</v>
+      </c>
+      <c r="E14" s="3">
+        <f>$C14+ABS($D14)</f>
+        <v>445481</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="D15" s="3">
+        <v>458182</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>-458182</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3">
-        <f>SUM(C2:C16)</f>
-        <v>0</v>
-      </c>
+      <c r="A16" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4540</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-1035912</v>
+      </c>
+      <c r="E16" s="3">
+        <f>$C16+ABS($D16)</f>
+        <v>1040452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <f>SUM(D2:D16)</f>
-        <v>3230066</v>
+        <v>430671</v>
       </c>
       <c r="E17" s="3">
-        <f>SUM(E2:E16)</f>
-        <v>31191</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>-430671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="7">
-        <f>C17/(E20-C17)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="D18" s="3">
+        <v>284113</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>-284113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>141556</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>-141556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>140556</v>
+      </c>
       <c r="E20" s="3">
-        <f>SUM(D17:E17)</f>
-        <v>3261257</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2"/>
+        <f t="shared" si="0"/>
+        <v>-140556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="D21" s="3">
+        <v>53421</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>-53421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SUM(C2:C28)</f>
+        <v>-5383</v>
+      </c>
+      <c r="D29" s="3">
+        <f>SUM(D2:D28)</f>
+        <v>3240970</v>
+      </c>
+      <c r="E29" s="3">
+        <f>SUM(E2:E28)</f>
+        <v>2191</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="7">
+        <f>D29/E32</f>
+        <v>0.99932442453519887</v>
+      </c>
+      <c r="E30" s="7">
+        <f>E29/E32</f>
+        <v>6.7557546480116163E-4</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7">
+        <f>C29/(E32-C29)</f>
+        <v>-1.6570500507304196E-3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+    <row r="32" spans="1:10">
+      <c r="E32" s="3">
+        <f>SUM(D29:E29)</f>
+        <v>3243161</v>
+      </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:9">
       <c r="A33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="H38" s="3"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:9">
       <c r="A46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:9">
       <c r="A47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:9">
       <c r="A48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -8609,108 +8751,101 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:5">
       <c r="A65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:5">
       <c r="A66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:5">
       <c r="A67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:5">
       <c r="A68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:5">
       <c r="A69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:5">
       <c r="A70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:5">
       <c r="A71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:5">
       <c r="A72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:5">
       <c r="A73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:5">
       <c r="A74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:5">
       <c r="A75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:5">
       <c r="A76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:5">
       <c r="A77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:5">
       <c r="A78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="J78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:5">
       <c r="A80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="J80" s="2"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2"/>
@@ -8735,7 +8870,6 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2"/>
@@ -8760,8 +8894,6 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2"/>
@@ -8774,112 +8906,98 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="H90" s="8"/>
+      <c r="J90" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="J92" s="2"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="K94" s="3"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="K95" s="3"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="1:11">
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="1:11">
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11">
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:11">
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="I103" s="3"/>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:11">
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -8887,7 +9005,7 @@
       <c r="I104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:14">
       <c r="A105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -8895,7 +9013,7 @@
       <c r="I105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:14">
       <c r="A106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -8903,7 +9021,7 @@
       <c r="I106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:14">
       <c r="A107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -8911,7 +9029,7 @@
       <c r="I107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:14">
       <c r="A108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -8919,7 +9037,7 @@
       <c r="I108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:14">
       <c r="A109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -8927,7 +9045,7 @@
       <c r="I109" s="3"/>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:14">
       <c r="A110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -8935,7 +9053,7 @@
       <c r="I110" s="3"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:14">
       <c r="A111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -8943,7 +9061,7 @@
       <c r="I111" s="3"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:14">
       <c r="A112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -8967,10 +9085,106 @@
       <c r="I114" s="3"/>
       <c r="K114" s="3"/>
     </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="2"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="K124" s="3"/>
+    </row>
     <row r="125" spans="1:11">
-      <c r="C125" s="7">
-        <f>'2022已實現損益'!C19</f>
-        <v>0</v>
+      <c r="A125" s="2"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="2"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="K126" s="3"/>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="7">
+        <f>'2022已實現損益'!C31</f>
+        <v>-1.6570500507304196E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8984,7 +9198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K88"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/投資報酬計算表.xlsx
+++ b/投資報酬計算表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alen4\OneDrive\桌面\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alen4\OneDrive\桌面\github\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830" tabRatio="624" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830" tabRatio="624" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="投資報酬率" sheetId="1" r:id="rId1"/>
@@ -1020,11 +1020,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="495655704"/>
-        <c:axId val="495656088"/>
+        <c:axId val="494177208"/>
+        <c:axId val="494183088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="495655704"/>
+        <c:axId val="494177208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1067,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495656088"/>
+        <c:crossAx val="494183088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +1075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="495656088"/>
+        <c:axId val="494183088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1112,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495655704"/>
+        <c:crossAx val="494177208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2264,11 +2264,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="496770344"/>
-        <c:axId val="496287840"/>
+        <c:axId val="494179560"/>
+        <c:axId val="494180736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="496770344"/>
+        <c:axId val="494179560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2311,7 +2311,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496287840"/>
+        <c:crossAx val="494180736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2319,7 +2319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496287840"/>
+        <c:axId val="494180736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,7 +2356,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496770344"/>
+        <c:crossAx val="494179560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10683,7 +10683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -15484,8 +15484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15886,7 +15886,7 @@
         <v>104</v>
       </c>
       <c r="J16" s="3">
-        <f>SUMIFS($C$4:$C$113,$B$4:$B$113,I16)</f>
+        <f>SUMIFS($C$4:$C$114,$B$4:$B$114,I16)</f>
         <v>192647</v>
       </c>
     </row>

--- a/投資報酬計算表.xlsx
+++ b/投資報酬計算表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830" tabRatio="624" activeTab="7"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830" tabRatio="624" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="投資報酬率" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,8 @@
     <sheet name="2022已實現損益" sheetId="9" r:id="rId7"/>
     <sheet name="2023已實現損益" sheetId="12" r:id="rId8"/>
     <sheet name="2024已實現損益" sheetId="13" r:id="rId9"/>
-    <sheet name="工作表1" sheetId="10" r:id="rId10"/>
-    <sheet name="2021已實現損益_阿公" sheetId="8" state="hidden" r:id="rId11"/>
-    <sheet name="帳號管理" sheetId="3" r:id="rId12"/>
+    <sheet name="2021已實現損益_阿公" sheetId="8" state="hidden" r:id="rId10"/>
+    <sheet name="帳號管理" sheetId="3" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2021已實現損益'!$A$1:$Q$99</definedName>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="133">
   <si>
     <t>被動收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,27 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期數</t>
-  </si>
-  <si>
-    <t>當期還本金額</t>
-  </si>
-  <si>
-    <t>當期利息金額</t>
-  </si>
-  <si>
-    <t>月付本息金額</t>
-  </si>
-  <si>
-    <t>本金餘額</t>
-  </si>
-  <si>
-    <t>累計利息</t>
-  </si>
-  <si>
-    <t>總計</t>
-  </si>
-  <si>
     <t>ichannels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,7 +555,7 @@
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,13 +570,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF565656"/>
-      <name val="Microsoft jhenghei"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="15"/>
@@ -617,7 +588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,24 +609,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -663,44 +622,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,37 +662,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,11 +933,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="494177208"/>
-        <c:axId val="494183088"/>
+        <c:axId val="338212464"/>
+        <c:axId val="132732544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="494177208"/>
+        <c:axId val="338212464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +980,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494183088"/>
+        <c:crossAx val="132732544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494183088"/>
+        <c:axId val="132732544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1025,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494177208"/>
+        <c:crossAx val="338212464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2247,7 +2160,7 @@
                 <c:formatCode>"$"#,##0.00;[Red]"$"#,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>192647</c:v>
+                  <c:v>192772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2264,11 +2177,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="494179560"/>
-        <c:axId val="494180736"/>
+        <c:axId val="402406208"/>
+        <c:axId val="403012080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="494179560"/>
+        <c:axId val="402406208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2311,7 +2224,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494180736"/>
+        <c:crossAx val="403012080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2319,7 +2232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494180736"/>
+        <c:axId val="403012080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,7 +2269,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494179560"/>
+        <c:crossAx val="402406208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3224,7 +3137,7 @@
                 <c:formatCode>"$"#,##0.00;[Red]"$"#,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>192647</c:v>
+                  <c:v>192772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5984,11 +5897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="46.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
@@ -5999,7 +5912,7 @@
     <col min="14" max="14" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6009,17 +5922,17 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200000</v>
       </c>
@@ -6030,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1">
+    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -6059,7 +5972,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -6088,7 +6001,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1">
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -6117,7 +6030,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1">
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -6146,7 +6059,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>400000</v>
       </c>
@@ -6162,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -6194,7 +6107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>250000</v>
       </c>
@@ -6214,7 +6127,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -6246,12 +6159,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250000</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6266,61 +6179,61 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A12" s="19">
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="14">
         <f>FV($B$11,1,,-SUM($A$11,C10))</f>
-        <v>4377802.0955499997</v>
-      </c>
-      <c r="D12" s="20">
+        <v>4041048.0881999996</v>
+      </c>
+      <c r="D12" s="14">
         <f>C12-C10-$A$11</f>
-        <v>1010262.0220499998</v>
-      </c>
-      <c r="F12" s="20">
+        <v>673508.01469999971</v>
+      </c>
+      <c r="F12" s="14">
         <f t="shared" si="3"/>
-        <v>153223.07334425001</v>
-      </c>
-      <c r="G12" s="20">
+        <v>141436.68308700001</v>
+      </c>
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>12768.589445354168</v>
-      </c>
-      <c r="I12" s="20">
+        <v>11786.390257250001</v>
+      </c>
+      <c r="I12" s="14">
         <f>C12-C10</f>
-        <v>1260262.0220499998</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="19">
+        <v>923508.01469999971</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13">
         <v>2023</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="13">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.25" customHeight="1">
+    <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="C13" s="1">
         <f>FV($B$11,1,,-SUM($A$11,C12))</f>
-        <v>6016142.7242149999</v>
+        <v>5149257.705839999</v>
       </c>
       <c r="D13" s="1">
         <f>C13-C12-$A$11</f>
-        <v>1388340.6286650002</v>
+        <v>858209.61763999937</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="3"/>
-        <v>210564.99534752502</v>
+        <v>180224.01970439998</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="0"/>
-        <v>17547.082945627084</v>
+        <v>15018.668308699998</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ref="I13:I70" si="7">C13-C12</f>
-        <v>1638340.6286650002</v>
+        <v>1108209.6176399994</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13">
@@ -6330,29 +6243,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="C14" s="1">
         <f>FV($B$11,1,,-SUM($A$11,C13))</f>
-        <v>8145985.5414795</v>
+        <v>6479109.2470079986</v>
       </c>
       <c r="D14" s="1">
         <f>C14-C13-$A$11</f>
-        <v>1879842.8172645001</v>
+        <v>1079851.5411679996</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="3"/>
-        <v>285109.49395178253</v>
+        <v>226768.82364527998</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>23759.124495981876</v>
+        <v>18897.401970439998</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="7"/>
-        <v>2129842.8172645001</v>
+        <v>1329851.5411679996</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14">
@@ -6362,29 +6275,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17.25" customHeight="1">
+    <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15:C70" si="8">FV($B$11,1,,-SUM($A$11,C14))</f>
-        <v>10914781.20392335</v>
+        <v>8074931.0964095984</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ref="D15:D70" si="9">C15-C14-$A$11</f>
-        <v>2518795.6624438502</v>
+        <v>1345821.8494015997</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="3"/>
-        <v>382017.34213731729</v>
+        <v>282622.58837433596</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>31834.778511443106</v>
+        <v>23551.882364527995</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="7"/>
-        <v>2768795.6624438502</v>
+        <v>1595821.8494015997</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15">
@@ -6395,29 +6308,29 @@
       </c>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="8"/>
-        <v>14514215.565100355</v>
+        <v>9989917.3156915177</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="9"/>
-        <v>3349434.3611770049</v>
+        <v>1664986.2192819193</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="3"/>
-        <v>507997.5447785125</v>
+        <v>349647.10604920314</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>42333.128731542711</v>
+        <v>29137.258837433594</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="7"/>
-        <v>3599434.3611770049</v>
+        <v>1914986.2192819193</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16">
@@ -6427,29 +6340,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20.25" customHeight="1">
+    <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="8"/>
-        <v>19193480.234630462</v>
+        <v>12287900.77882982</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="9"/>
-        <v>4429264.6695301067</v>
+        <v>2047983.4631383028</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="3"/>
-        <v>671771.80821206619</v>
+        <v>430076.52725904377</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>55980.984017672185</v>
+        <v>35839.710604920314</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="7"/>
-        <v>4679264.6695301067</v>
+        <v>2297983.4631383028</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17">
@@ -6459,29 +6372,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="8"/>
-        <v>25276524.305019602</v>
+        <v>15045480.934595784</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="9"/>
-        <v>5833044.0703891404</v>
+        <v>2507580.1557659637</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="3"/>
-        <v>884678.35067568615</v>
+        <v>526591.8327108525</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>73723.195889640512</v>
+        <v>43882.652725904372</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="7"/>
-        <v>6083044.0703891404</v>
+        <v>2757580.1557659637</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18">
@@ -6491,29 +6404,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="8"/>
-        <v>33184481.596525483</v>
+        <v>18354577.121514939</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="9"/>
-        <v>7657957.2915058807</v>
+        <v>3059096.1869191546</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="3"/>
-        <v>1161456.855878392</v>
+        <v>642410.1992530229</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v>96788.071323199329</v>
+        <v>53534.18327108524</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="7"/>
-        <v>7907957.2915058807</v>
+        <v>3309096.1869191546</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19">
@@ -6523,29 +6436,29 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="8"/>
-        <v>43464826.075483128</v>
+        <v>22325492.545817927</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="9"/>
-        <v>10030344.478957646</v>
+        <v>3720915.4243029878</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="3"/>
-        <v>1521268.9126419097</v>
+        <v>781392.23910362751</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
-        <v>126772.40938682581</v>
+        <v>65116.019925302295</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="7"/>
-        <v>10280344.478957646</v>
+        <v>3970915.4243029878</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20">
@@ -6555,29 +6468,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1">
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="8"/>
-        <v>56829273.89812807</v>
+        <v>27090591.054981511</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="9"/>
-        <v>13114447.822644942</v>
+        <v>4515098.5091635846</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="3"/>
-        <v>1989024.5864344826</v>
+        <v>948170.68692435301</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>165752.04886954022</v>
+        <v>79014.223910362751</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="7"/>
-        <v>13364447.822644942</v>
+        <v>4765098.5091635846</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21">
@@ -6587,29 +6500,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" customHeight="1">
+    <row r="22" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="8"/>
-        <v>74203056.067566499</v>
+        <v>32808709.265977811</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="9"/>
-        <v>17123782.169438429</v>
+        <v>5468118.2109963</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="3"/>
-        <v>2597106.9623648277</v>
+        <v>1148304.8243092236</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>216425.58019706898</v>
+        <v>95692.068692435292</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="7"/>
-        <v>17373782.169438429</v>
+        <v>5718118.2109963</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22">
@@ -6619,29 +6532,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="8"/>
-        <v>96788972.887836456</v>
+        <v>39670451.11917337</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="9"/>
-        <v>22335916.820269957</v>
+        <v>6611741.8531955592</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="3"/>
-        <v>3387614.0510742762</v>
+        <v>1388465.789171068</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="0"/>
-        <v>282301.17092285637</v>
+        <v>115705.48243092233</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="7"/>
-        <v>22585916.820269957</v>
+        <v>6861741.8531955592</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23">
@@ -6651,29 +6564,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.25" customHeight="1">
+    <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="8"/>
-        <v>126150664.75418739</v>
+        <v>47904541.343008041</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="9"/>
-        <v>29111691.866350934</v>
+        <v>7984090.2238346711</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="3"/>
-        <v>4415273.2663965588</v>
+        <v>1676658.9470052817</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="0"/>
-        <v>367939.4388663799</v>
+        <v>139721.57891710682</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="7"/>
-        <v>29361691.866350934</v>
+        <v>8234090.2238346711</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24">
@@ -6683,29 +6596,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="8"/>
-        <v>164320864.18044361</v>
+        <v>57785449.611609645</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="9"/>
-        <v>37920199.426256225</v>
+        <v>9630908.2686016038</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="3"/>
-        <v>5751230.2463155268</v>
+        <v>2022490.7364063377</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="0"/>
-        <v>479269.18719296058</v>
+        <v>168540.89470052815</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="7"/>
-        <v>38170199.426256225</v>
+        <v>9880908.2686016038</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25">
@@ -6715,29 +6628,29 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19.5" customHeight="1">
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="8"/>
-        <v>213942123.43457672</v>
+        <v>69642539.533931568</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="9"/>
-        <v>49371259.254133105</v>
+        <v>11607089.922321923</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="3"/>
-        <v>7487974.3202101858</v>
+        <v>2437488.8836876052</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="0"/>
-        <v>623997.86001751549</v>
+        <v>203124.07364063375</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="7"/>
-        <v>49621259.254133105</v>
+        <v>11857089.922321923</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26">
@@ -6747,29 +6660,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="8"/>
-        <v>278449760.46494973</v>
+        <v>83871047.440717876</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="9"/>
-        <v>64257637.030373007</v>
+        <v>13978507.906786308</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="3"/>
-        <v>9745741.6162732411</v>
+        <v>2935486.6604251261</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="0"/>
-        <v>812145.13468943676</v>
+        <v>244623.8883687605</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="7"/>
-        <v>64507637.030373007</v>
+        <v>14228507.906786308</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27">
@@ -6779,29 +6692,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="8"/>
-        <v>362309688.60443467</v>
+        <v>100945256.92886145</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="9"/>
-        <v>83609928.139484942</v>
+        <v>16824209.488143578</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="3"/>
-        <v>12680839.101155214</v>
+        <v>3533083.9925101511</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="0"/>
-        <v>1056736.5917629346</v>
+        <v>294423.66604251257</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="7"/>
-        <v>83859928.139484942</v>
+        <v>17074209.488143578</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28">
@@ -6811,29 +6724,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="8"/>
-        <v>471327595.18576509</v>
+        <v>121434308.31463374</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="9"/>
-        <v>108767906.58133042</v>
+        <v>20239051.385772288</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="3"/>
-        <v>16496465.83150178</v>
+        <v>4250200.791012181</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="0"/>
-        <v>1374705.4859584817</v>
+        <v>354183.3992510151</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="7"/>
-        <v>109017906.58133042</v>
+        <v>20489051.385772288</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29">
@@ -6843,29 +6756,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="8"/>
-        <v>613050873.74149466</v>
+        <v>146021169.97756049</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="9"/>
-        <v>141473278.55572957</v>
+        <v>24336861.662926748</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="3"/>
-        <v>21456780.580952317</v>
+        <v>5110740.9492146177</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="0"/>
-        <v>1788065.048412693</v>
+        <v>425895.07910121814</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="7"/>
-        <v>141723278.55572957</v>
+        <v>24586861.662926748</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30">
@@ -6875,29 +6788,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.25" customHeight="1">
+    <row r="31" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="8"/>
-        <v>797291135.8639431</v>
+        <v>175525403.97307259</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="9"/>
-        <v>183990262.12244844</v>
+        <v>29254233.995512098</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="3"/>
-        <v>27905189.755238011</v>
+        <v>6143389.1390575413</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="0"/>
-        <v>2325432.4796031676</v>
+        <v>511949.09492146177</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="7"/>
-        <v>184240262.12244844</v>
+        <v>29504233.995512098</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31">
@@ -6907,29 +6820,29 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19.5" customHeight="1">
+    <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="8"/>
-        <v>1036803476.623126</v>
+        <v>210930484.76768711</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="9"/>
-        <v>239262340.75918293</v>
+        <v>35155080.794614524</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="3"/>
-        <v>36288121.681809418</v>
+        <v>7382566.9668690497</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="0"/>
-        <v>3024010.140150785</v>
+        <v>615213.9139057541</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="7"/>
-        <v>239512340.75918293</v>
+        <v>35405080.794614524</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32">
@@ -6939,29 +6852,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="8"/>
-        <v>1348169519.6100638</v>
+        <v>253416581.72122452</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="9"/>
-        <v>311116042.98693776</v>
+        <v>42236096.953537405</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="3"/>
-        <v>47185933.186352238</v>
+        <v>8869580.3602428585</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="0"/>
-        <v>3932161.0988626867</v>
+        <v>739131.69668690488</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="7"/>
-        <v>311366042.98693776</v>
+        <v>42486096.953537405</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33">
@@ -6971,29 +6884,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="8"/>
-        <v>1752945375.493083</v>
+        <v>304399898.06546938</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="9"/>
-        <v>404525855.88301921</v>
+        <v>50733316.344244868</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="3"/>
-        <v>61353088.142257914</v>
+        <v>10653996.432291429</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="0"/>
-        <v>5112757.3451881595</v>
+        <v>887833.03602428583</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="7"/>
-        <v>404775855.88301921</v>
+        <v>50983316.344244868</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34">
@@ -7003,29 +6916,29 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="8"/>
-        <v>2279153988.1410079</v>
+        <v>365579877.67856324</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="9"/>
-        <v>525958612.6479249</v>
+        <v>60929979.613093853</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="3"/>
-        <v>79770389.584935278</v>
+        <v>12795295.718749715</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="0"/>
-        <v>6647532.4654112728</v>
+        <v>1066274.643229143</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="7"/>
-        <v>526208612.6479249</v>
+        <v>61179979.613093853</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35">
@@ -7035,29 +6948,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="8"/>
-        <v>2963225184.5833106</v>
+        <v>438995853.2142759</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="9"/>
-        <v>683821196.4423027</v>
+        <v>73165975.535712659</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="3"/>
-        <v>103712881.46041588</v>
+        <v>15364854.862499658</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="0"/>
-        <v>8642740.1217013244</v>
+        <v>1280404.5718749715</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="7"/>
-        <v>684071196.4423027</v>
+        <v>73415975.535712659</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36">
@@ -7067,29 +6980,29 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="8"/>
-        <v>3852517739.9583039</v>
+        <v>527095023.85713106</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="9"/>
-        <v>889042555.37499332</v>
+        <v>87849170.642855167</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="3"/>
-        <v>134838120.89854065</v>
+        <v>18448325.834999587</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
-        <v>11236510.074878387</v>
+        <v>1537360.4862499656</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="7"/>
-        <v>889292555.37499332</v>
+        <v>88099170.642855167</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37">
@@ -7099,29 +7012,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="8"/>
-        <v>5008598061.9457951</v>
+        <v>632814028.62855721</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="9"/>
-        <v>1155830321.9874911</v>
+        <v>105469004.77142614</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="3"/>
-        <v>175300932.16810283</v>
+        <v>22148491.001999505</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="0"/>
-        <v>14608411.014008569</v>
+        <v>1845707.5834999587</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="7"/>
-        <v>1156080321.9874911</v>
+        <v>105719004.77142614</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38">
@@ -7131,29 +7044,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="8"/>
-        <v>6511502480.5295334</v>
+        <v>759676834.35426867</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="9"/>
-        <v>1502654418.5837383</v>
+        <v>126612805.72571146</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="3"/>
-        <v>227902586.81853369</v>
+        <v>26588689.202399407</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="0"/>
-        <v>18991882.234877806</v>
+        <v>2215724.1001999504</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="7"/>
-        <v>1502904418.5837383</v>
+        <v>126862805.72571146</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39">
@@ -7163,29 +7076,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="8"/>
-        <v>8465278224.6883936</v>
+        <v>911912201.22512233</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="9"/>
-        <v>1953525744.1588602</v>
+        <v>151985366.87085366</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="3"/>
-        <v>296284737.86409378</v>
+        <v>31916927.042879283</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="0"/>
-        <v>24690394.822007816</v>
+        <v>2659743.9202399403</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="7"/>
-        <v>1953775744.1588602</v>
+        <v>152235366.87085366</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40">
@@ -7195,29 +7108,29 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="8"/>
-        <v>11005186692.094912</v>
+        <v>1094594641.4701467</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="9"/>
-        <v>2539658467.406518</v>
+        <v>182432440.24502432</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="3"/>
-        <v>385181534.22332191</v>
+        <v>38310812.451455139</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="0"/>
-        <v>32098461.185276825</v>
+        <v>3192567.7042879281</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="7"/>
-        <v>2539908467.406518</v>
+        <v>182682440.24502432</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41">
@@ -7227,29 +7140,29 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="8"/>
-        <v>14307067699.723385</v>
+        <v>1313813569.7641759</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="9"/>
-        <v>3301631007.6284733</v>
+        <v>218968928.29402924</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="3"/>
-        <v>500747369.49031854</v>
+        <v>45983474.94174616</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="0"/>
-        <v>41728947.457526542</v>
+        <v>3831956.2451455132</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="7"/>
-        <v>3301881007.6284733</v>
+        <v>219218928.29402924</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42">
@@ -7259,29 +7172,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="8"/>
-        <v>18599513009.6404</v>
+        <v>1576876283.717011</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="9"/>
-        <v>4292195309.9170151</v>
+        <v>262812713.95283508</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="3"/>
-        <v>650982955.33741403</v>
+        <v>55190669.930095389</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="0"/>
-        <v>54248579.611451171</v>
+        <v>4599222.4941746155</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="7"/>
-        <v>4292445309.9170151</v>
+        <v>263062713.95283508</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43">
@@ -7291,29 +7204,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>39</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="8"/>
-        <v>24179691912.53252</v>
+        <v>1892551540.4604132</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="9"/>
-        <v>5579928902.8921204</v>
+        <v>315425256.74340224</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="3"/>
-        <v>846289216.93863833</v>
+        <v>66239303.916114472</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="0"/>
-        <v>70524101.411553189</v>
+        <v>5519941.9930095393</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="7"/>
-        <v>5580178902.8921204</v>
+        <v>315675256.74340224</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44">
@@ -7323,29 +7236,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="8"/>
-        <v>31433924486.292278</v>
+        <v>2271361848.552496</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="9"/>
-        <v>7253982573.759758</v>
+        <v>378560308.09208274</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="3"/>
-        <v>1100187357.0202298</v>
+        <v>79497664.699337363</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="0"/>
-        <v>91682279.751685813</v>
+        <v>6624805.3916114466</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="7"/>
-        <v>7254232573.759758</v>
+        <v>378810308.09208274</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45">
@@ -7355,29 +7268,29 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="8"/>
-        <v>40864426832.179962</v>
+        <v>2725934218.2629952</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="9"/>
-        <v>9430252345.8876839</v>
+        <v>454322369.71049929</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="3"/>
-        <v>1430254939.1262989</v>
+        <v>95407697.639204845</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="0"/>
-        <v>119187911.59385824</v>
+        <v>7950641.4699337371</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="7"/>
-        <v>9430502345.8876839</v>
+        <v>454572369.71049929</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46">
@@ -7387,29 +7300,29 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="8"/>
-        <v>53124079881.833954</v>
+        <v>3271421061.9155941</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="9"/>
-        <v>12259403049.653992</v>
+        <v>545236843.65259886</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="3"/>
-        <v>1859342795.8641887</v>
+        <v>114499737.1670458</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="0"/>
-        <v>154945232.98868239</v>
+        <v>9541644.7639204841</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="7"/>
-        <v>12259653049.653992</v>
+        <v>545486843.65259886</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47">
@@ -7419,29 +7332,29 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="8"/>
-        <v>69061628846.38414</v>
+        <v>3926005274.2987127</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="9"/>
-        <v>15937298964.550186</v>
+        <v>654334212.38311863</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="3"/>
-        <v>2417157009.623445</v>
+        <v>137410184.60045496</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="0"/>
-        <v>201429750.80195376</v>
+        <v>11450848.716704579</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="7"/>
-        <v>15937548964.550186</v>
+        <v>654584212.38311863</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48">
@@ -7451,29 +7364,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="8"/>
-        <v>89780442500.299393</v>
+        <v>4711506329.1584549</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="9"/>
-        <v>20718563653.915253</v>
+        <v>785251054.85974216</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="3"/>
-        <v>3142315487.510479</v>
+        <v>164902721.52054593</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="0"/>
-        <v>261859623.95920658</v>
+        <v>13741893.460045494</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="7"/>
-        <v>20718813653.915253</v>
+        <v>785501054.85974216</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49">
@@ -7483,29 +7396,29 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="8"/>
-        <v>116714900250.38922</v>
+        <v>5654107594.9901457</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="9"/>
-        <v>26934207750.089828</v>
+        <v>942351265.83169079</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="3"/>
-        <v>4085021508.7636232</v>
+        <v>197893765.82465512</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="0"/>
-        <v>340418459.06363529</v>
+        <v>16491147.152054593</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="7"/>
-        <v>26934457750.089828</v>
+        <v>942601265.83169079</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50">
@@ -7515,29 +7428,29 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="8"/>
-        <v>151729695325.50598</v>
+        <v>6785229113.9881744</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="9"/>
-        <v>35014545075.11676</v>
+        <v>1130871518.9980288</v>
       </c>
       <c r="F51" s="6">
         <f t="shared" si="3"/>
-        <v>5310539336.3927097</v>
+        <v>237483018.98958611</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="0"/>
-        <v>442544944.6993925</v>
+        <v>19790251.582465511</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="7"/>
-        <v>35014795075.11676</v>
+        <v>1131121518.9980288</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51">
@@ -7547,29 +7460,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="8"/>
-        <v>197248928923.15778</v>
+        <v>8142574936.7858086</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="9"/>
-        <v>45518983597.651794</v>
+        <v>1357095822.7976341</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" si="3"/>
-        <v>6903712512.310523</v>
+        <v>284990122.7875033</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="0"/>
-        <v>575309376.02587688</v>
+        <v>23749176.898958609</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="7"/>
-        <v>45519233597.651794</v>
+        <v>1357345822.7976341</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52">
@@ -7579,29 +7492,29 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="8"/>
-        <v>256423932600.1051</v>
+        <v>9771389924.1429691</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="9"/>
-        <v>59174753676.947327</v>
+        <v>1628564987.3571606</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="3"/>
-        <v>8974837641.0036793</v>
+        <v>341998647.34500396</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="0"/>
-        <v>747903136.75030661</v>
+        <v>28499887.27875033</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="7"/>
-        <v>59175003676.947327</v>
+        <v>1628814987.3571606</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53">
@@ -7611,29 +7524,29 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="8"/>
-        <v>333351437380.13666</v>
+        <v>11725967908.971563</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="9"/>
-        <v>76927254780.031555</v>
+        <v>1954327984.8285942</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="3"/>
-        <v>11667300308.304785</v>
+        <v>410408876.81400478</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="0"/>
-        <v>972275025.69206536</v>
+        <v>34200739.734500401</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="7"/>
-        <v>76927504780.031555</v>
+        <v>1954577984.8285942</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54">
@@ -7643,29 +7556,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="8"/>
-        <v>433357193594.17767</v>
+        <v>14071461490.765875</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="9"/>
-        <v>100005506214.04102</v>
+        <v>2345243581.7943115</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" si="3"/>
-        <v>15167501775.796221</v>
+        <v>492501152.17680568</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="0"/>
-        <v>1263958481.3163517</v>
+        <v>41041762.68140047</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="7"/>
-        <v>100005756214.04102</v>
+        <v>2345493581.7943115</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55">
@@ -7675,29 +7588,29 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>51</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="8"/>
-        <v>563364676672.43103</v>
+        <v>16886053788.919048</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="9"/>
-        <v>130007233078.25336</v>
+        <v>2814342298.1531734</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" si="3"/>
-        <v>19717763683.535088</v>
+        <v>591011882.61216676</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="0"/>
-        <v>1643146973.627924</v>
+        <v>49250990.217680566</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="7"/>
-        <v>130007483078.25336</v>
+        <v>2814592298.1531734</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56">
@@ -7707,29 +7620,29 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>52</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="8"/>
-        <v>732374404674.1604</v>
+        <v>20263564546.702858</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="9"/>
-        <v>169009478001.72937</v>
+        <v>3377260757.7838097</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" si="3"/>
-        <v>25633104163.595615</v>
+        <v>709224759.13460004</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="0"/>
-        <v>2136092013.6329679</v>
+        <v>59102063.26121667</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="7"/>
-        <v>169009728001.72937</v>
+        <v>3377510757.7838097</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57">
@@ -7739,29 +7652,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="8"/>
-        <v>952087051076.40857</v>
+        <v>24316577456.04343</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="9"/>
-        <v>219712396402.24817</v>
+        <v>4052762909.3405724</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" si="3"/>
-        <v>33323046787.674305</v>
+        <v>851080210.9615202</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="0"/>
-        <v>2776920565.6395254</v>
+        <v>70923350.913460016</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="7"/>
-        <v>219712646402.24817</v>
+        <v>4053012909.3405724</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58">
@@ -7771,29 +7684,29 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>54</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="8"/>
-        <v>1237713491399.3313</v>
+        <v>29180192947.252117</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="9"/>
-        <v>285626190322.92273</v>
+        <v>4863365491.2086868</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="3"/>
-        <v>43319972198.976601</v>
+        <v>1021306753.1538242</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="0"/>
-        <v>3609997683.2480502</v>
+        <v>85108896.096152022</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="7"/>
-        <v>285626440322.92273</v>
+        <v>4863615491.2086868</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59">
@@ -7803,29 +7716,29 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>55</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="8"/>
-        <v>1609027863819.1309</v>
+        <v>35016531536.702538</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="9"/>
-        <v>371314122419.79956</v>
+        <v>5836088589.4504204</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" si="3"/>
-        <v>56315975233.669586</v>
+        <v>1225578603.7845888</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="0"/>
-        <v>4692997936.1391325</v>
+        <v>102131550.31538241</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="7"/>
-        <v>371314372419.79956</v>
+        <v>5836338589.4504204</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60">
@@ -7835,29 +7748,29 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>56</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="8"/>
-        <v>2091736547964.8701</v>
+        <v>42020137844.043045</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="9"/>
-        <v>482708434145.73926</v>
+        <v>7003356307.3405075</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" si="3"/>
-        <v>73210779178.770462</v>
+        <v>1470704824.5415068</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="0"/>
-        <v>6100898264.8975382</v>
+        <v>122558735.3784589</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="7"/>
-        <v>482708684145.73926</v>
+        <v>7003606307.3405075</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61">
@@ -7867,29 +7780,29 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>57</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="8"/>
-        <v>2719257837354.3311</v>
+        <v>50424465412.851654</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="9"/>
-        <v>627521039389.46094</v>
+        <v>8404077568.808609</v>
       </c>
       <c r="F62" s="6">
         <f t="shared" si="3"/>
-        <v>95174024307.401596</v>
+        <v>1764856289.4498081</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="0"/>
-        <v>7931168692.2834663</v>
+        <v>147071357.45415068</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="7"/>
-        <v>627521289389.46094</v>
+        <v>8404327568.808609</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62">
@@ -7899,29 +7812,29 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>58</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="8"/>
-        <v>3535035513560.6304</v>
+        <v>60509658495.421982</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="9"/>
-        <v>815777426206.29932</v>
+        <v>10084943082.570328</v>
       </c>
       <c r="F63" s="6">
         <f t="shared" si="3"/>
-        <v>123726242974.62207</v>
+        <v>2117838047.3397696</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="0"/>
-        <v>10310520247.885172</v>
+        <v>176486503.9449808</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="7"/>
-        <v>815777676206.29932</v>
+        <v>10085193082.570328</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63">
@@ -7931,29 +7844,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>59</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="8"/>
-        <v>4595546492628.8193</v>
+        <v>72611890194.506378</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="9"/>
-        <v>1060510729068.189</v>
+        <v>12101981699.084396</v>
       </c>
       <c r="F64" s="6">
         <f t="shared" si="3"/>
-        <v>160844127242.0087</v>
+        <v>2541416156.8077235</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="0"/>
-        <v>13403677270.167391</v>
+        <v>211784679.73397696</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="7"/>
-        <v>1060510979068.189</v>
+        <v>12102231699.084396</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64">
@@ -7963,29 +7876,29 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>60</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="8"/>
-        <v>5974210765417.4658</v>
+        <v>87134568233.407654</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="9"/>
-        <v>1378664022788.6465</v>
+        <v>14522428038.901276</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" si="3"/>
-        <v>209097376789.61133</v>
+        <v>3049709888.1692681</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="0"/>
-        <v>17424781399.134277</v>
+        <v>254142490.68077233</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" si="7"/>
-        <v>1378664272788.6465</v>
+        <v>14522678038.901276</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65">
@@ -7995,29 +7908,29 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>61</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="8"/>
-        <v>7766474320042.7061</v>
+        <v>104561781880.08919</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="9"/>
-        <v>1792263304625.2402</v>
+        <v>17426963646.681534</v>
       </c>
       <c r="F66" s="6">
         <f t="shared" si="3"/>
-        <v>271826601201.49475</v>
+        <v>3659662365.803122</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="0"/>
-        <v>22652216766.791229</v>
+        <v>304971863.81692684</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="7"/>
-        <v>1792263554625.2402</v>
+        <v>17427213646.681534</v>
       </c>
       <c r="K66">
         <v>2077</v>
@@ -8026,29 +7939,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>62</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" si="8"/>
-        <v>10096416941055.518</v>
+        <v>125474438256.10703</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="9"/>
-        <v>2329942371012.8115</v>
+        <v>20912406376.017838</v>
       </c>
       <c r="F67" s="6">
         <f t="shared" si="3"/>
-        <v>353374592936.94318</v>
+        <v>4391605338.9637461</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" si="0"/>
-        <v>29447882744.745266</v>
+        <v>365967111.58031219</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" si="7"/>
-        <v>2329942621012.8115</v>
+        <v>20912656376.017838</v>
       </c>
       <c r="K67">
         <v>2078</v>
@@ -8057,29 +7970,29 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>63</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="8"/>
-        <v>13125342348372.174</v>
+        <v>150569625907.32843</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="9"/>
-        <v>3028925157316.6562</v>
+        <v>25094937651.221405</v>
       </c>
       <c r="F68" s="6">
         <f t="shared" si="3"/>
-        <v>459386982193.02612</v>
+        <v>5269936906.7564955</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="0"/>
-        <v>38282248516.08551</v>
+        <v>439161408.89637464</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="7"/>
-        <v>3028925407316.6562</v>
+        <v>25095187651.221405</v>
       </c>
       <c r="K68">
         <v>2079</v>
@@ -8088,29 +8001,29 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>64</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" si="8"/>
-        <v>17062945377883.826</v>
+        <v>180683851088.7941</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="9"/>
-        <v>3937602779511.6523</v>
+        <v>30113975181.465668</v>
       </c>
       <c r="F69" s="6">
         <f t="shared" si="3"/>
-        <v>597203088225.93396</v>
+        <v>6323934788.1077938</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" ref="G69:G70" si="10">F69/12</f>
-        <v>49766924018.827827</v>
+        <v>526994565.67564946</v>
       </c>
       <c r="I69" s="1">
         <f t="shared" si="7"/>
-        <v>3937603029511.6523</v>
+        <v>30114225181.465668</v>
       </c>
       <c r="K69">
         <v>2080</v>
@@ -8119,29 +8032,29 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>65</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" si="8"/>
-        <v>22181829316248.977</v>
+        <v>216820921306.55292</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="9"/>
-        <v>5118883688365.1504</v>
+        <v>36136820217.75882</v>
       </c>
       <c r="F70" s="6">
         <f t="shared" ref="F70" si="11">C70*$F$1</f>
-        <v>776364026068.71423</v>
+        <v>7588732245.729353</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="10"/>
-        <v>64697002172.392853</v>
+        <v>632394353.81077945</v>
       </c>
       <c r="I70" s="1">
         <f t="shared" si="7"/>
-        <v>5118883938365.1504</v>
+        <v>36137070217.75882</v>
       </c>
       <c r="K70">
         <v>2081</v>
@@ -8159,1755 +8072,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:11" ht="17.25" thickBot="1"/>
-    <row r="3" spans="3:11" ht="32.25" thickBot="1">
-      <c r="C3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <v>10568</v>
-      </c>
-      <c r="E4" s="12">
-        <v>2817</v>
-      </c>
-      <c r="F4" s="12">
-        <v>13385</v>
-      </c>
-      <c r="G4" s="12">
-        <v>989432</v>
-      </c>
-      <c r="H4" s="12">
-        <v>2817</v>
-      </c>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C5" s="13">
-        <v>2</v>
-      </c>
-      <c r="D5" s="14">
-        <v>10598</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2787</v>
-      </c>
-      <c r="F5" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G5" s="14">
-        <v>978834</v>
-      </c>
-      <c r="H5" s="14">
-        <v>5604</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
-      <c r="D6" s="15">
-        <v>10628</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2757</v>
-      </c>
-      <c r="F6" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G6" s="15">
-        <v>968206</v>
-      </c>
-      <c r="H6" s="15">
-        <v>8361</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C7" s="13">
-        <v>4</v>
-      </c>
-      <c r="D7" s="14">
-        <v>10658</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2727</v>
-      </c>
-      <c r="F7" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G7" s="14">
-        <v>957548</v>
-      </c>
-      <c r="H7" s="14">
-        <v>11088</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-      <c r="D8" s="15">
-        <v>10688</v>
-      </c>
-      <c r="E8" s="15">
-        <v>2697</v>
-      </c>
-      <c r="F8" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G8" s="15">
-        <v>946860</v>
-      </c>
-      <c r="H8" s="15">
-        <v>13785</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C9" s="13">
-        <v>6</v>
-      </c>
-      <c r="D9" s="14">
-        <v>10718</v>
-      </c>
-      <c r="E9" s="14">
-        <v>2667</v>
-      </c>
-      <c r="F9" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G9" s="14">
-        <v>936142</v>
-      </c>
-      <c r="H9" s="14">
-        <v>16452</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C10" s="10">
-        <v>7</v>
-      </c>
-      <c r="D10" s="15">
-        <v>10748</v>
-      </c>
-      <c r="E10" s="15">
-        <v>2637</v>
-      </c>
-      <c r="F10" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G10" s="15">
-        <v>925394</v>
-      </c>
-      <c r="H10" s="15">
-        <v>19089</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C11" s="13">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14">
-        <v>10778</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2607</v>
-      </c>
-      <c r="F11" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G11" s="14">
-        <v>914616</v>
-      </c>
-      <c r="H11" s="14">
-        <v>21696</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C12" s="10">
-        <v>9</v>
-      </c>
-      <c r="D12" s="15">
-        <v>10809</v>
-      </c>
-      <c r="E12" s="15">
-        <v>2576</v>
-      </c>
-      <c r="F12" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G12" s="15">
-        <v>903807</v>
-      </c>
-      <c r="H12" s="15">
-        <v>24272</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C13" s="13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14">
-        <v>10839</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2546</v>
-      </c>
-      <c r="F13" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G13" s="14">
-        <v>892968</v>
-      </c>
-      <c r="H13" s="14">
-        <v>26818</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C14" s="10">
-        <v>11</v>
-      </c>
-      <c r="D14" s="15">
-        <v>10870</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2515</v>
-      </c>
-      <c r="F14" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G14" s="15">
-        <v>882098</v>
-      </c>
-      <c r="H14" s="15">
-        <v>29333</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C15" s="13">
-        <v>12</v>
-      </c>
-      <c r="D15" s="14">
-        <v>10900</v>
-      </c>
-      <c r="E15" s="14">
-        <v>2485</v>
-      </c>
-      <c r="F15" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G15" s="14">
-        <v>871198</v>
-      </c>
-      <c r="H15" s="14">
-        <v>31818</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C16" s="10">
-        <v>13</v>
-      </c>
-      <c r="D16" s="15">
-        <v>10931</v>
-      </c>
-      <c r="E16" s="15">
-        <v>2454</v>
-      </c>
-      <c r="F16" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G16" s="15">
-        <v>860267</v>
-      </c>
-      <c r="H16" s="15">
-        <v>34272</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C17" s="13">
-        <v>14</v>
-      </c>
-      <c r="D17" s="14">
-        <v>10962</v>
-      </c>
-      <c r="E17" s="14">
-        <v>2423</v>
-      </c>
-      <c r="F17" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G17" s="14">
-        <v>849305</v>
-      </c>
-      <c r="H17" s="14">
-        <v>36695</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C18" s="10">
-        <v>15</v>
-      </c>
-      <c r="D18" s="15">
-        <v>10993</v>
-      </c>
-      <c r="E18" s="15">
-        <v>2392</v>
-      </c>
-      <c r="F18" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G18" s="15">
-        <v>838312</v>
-      </c>
-      <c r="H18" s="15">
-        <v>39087</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C19" s="13">
-        <v>16</v>
-      </c>
-      <c r="D19" s="14">
-        <v>11024</v>
-      </c>
-      <c r="E19" s="14">
-        <v>2361</v>
-      </c>
-      <c r="F19" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G19" s="14">
-        <v>827288</v>
-      </c>
-      <c r="H19" s="14">
-        <v>41448</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C20" s="10">
-        <v>17</v>
-      </c>
-      <c r="D20" s="15">
-        <v>11055</v>
-      </c>
-      <c r="E20" s="15">
-        <v>2330</v>
-      </c>
-      <c r="F20" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G20" s="15">
-        <v>816233</v>
-      </c>
-      <c r="H20" s="15">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C21" s="13">
-        <v>18</v>
-      </c>
-      <c r="D21" s="14">
-        <v>11086</v>
-      </c>
-      <c r="E21" s="14">
-        <v>2299</v>
-      </c>
-      <c r="F21" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G21" s="14">
-        <v>805147</v>
-      </c>
-      <c r="H21" s="14">
-        <v>46077</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C22" s="10">
-        <v>19</v>
-      </c>
-      <c r="D22" s="15">
-        <v>11117</v>
-      </c>
-      <c r="E22" s="15">
-        <v>2268</v>
-      </c>
-      <c r="F22" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G22" s="15">
-        <v>794030</v>
-      </c>
-      <c r="H22" s="15">
-        <v>48345</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C23" s="13">
-        <v>20</v>
-      </c>
-      <c r="D23" s="14">
-        <v>11148</v>
-      </c>
-      <c r="E23" s="14">
-        <v>2237</v>
-      </c>
-      <c r="F23" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G23" s="14">
-        <v>782882</v>
-      </c>
-      <c r="H23" s="14">
-        <v>50582</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C24" s="10">
-        <v>21</v>
-      </c>
-      <c r="D24" s="15">
-        <v>11180</v>
-      </c>
-      <c r="E24" s="15">
-        <v>2205</v>
-      </c>
-      <c r="F24" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G24" s="15">
-        <v>771702</v>
-      </c>
-      <c r="H24" s="15">
-        <v>52787</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C25" s="13">
-        <v>22</v>
-      </c>
-      <c r="D25" s="14">
-        <v>11211</v>
-      </c>
-      <c r="E25" s="14">
-        <v>2174</v>
-      </c>
-      <c r="F25" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G25" s="14">
-        <v>760491</v>
-      </c>
-      <c r="H25" s="14">
-        <v>54961</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C26" s="10">
-        <v>23</v>
-      </c>
-      <c r="D26" s="15">
-        <v>11243</v>
-      </c>
-      <c r="E26" s="15">
-        <v>2142</v>
-      </c>
-      <c r="F26" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G26" s="15">
-        <v>749248</v>
-      </c>
-      <c r="H26" s="15">
-        <v>57103</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C27" s="13">
-        <v>24</v>
-      </c>
-      <c r="D27" s="14">
-        <v>11275</v>
-      </c>
-      <c r="E27" s="14">
-        <v>2110</v>
-      </c>
-      <c r="F27" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G27" s="14">
-        <v>737973</v>
-      </c>
-      <c r="H27" s="14">
-        <v>59213</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C28" s="10">
-        <v>25</v>
-      </c>
-      <c r="D28" s="15">
-        <v>11306</v>
-      </c>
-      <c r="E28" s="15">
-        <v>2079</v>
-      </c>
-      <c r="F28" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G28" s="15">
-        <v>726667</v>
-      </c>
-      <c r="H28" s="15">
-        <v>61292</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C29" s="13">
-        <v>26</v>
-      </c>
-      <c r="D29" s="14">
-        <v>11338</v>
-      </c>
-      <c r="E29" s="14">
-        <v>2047</v>
-      </c>
-      <c r="F29" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G29" s="14">
-        <v>715329</v>
-      </c>
-      <c r="H29" s="14">
-        <v>63339</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C30" s="10">
-        <v>27</v>
-      </c>
-      <c r="D30" s="15">
-        <v>11370</v>
-      </c>
-      <c r="E30" s="15">
-        <v>2015</v>
-      </c>
-      <c r="F30" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G30" s="15">
-        <v>703959</v>
-      </c>
-      <c r="H30" s="15">
-        <v>65354</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C31" s="13">
-        <v>28</v>
-      </c>
-      <c r="D31" s="14">
-        <v>11402</v>
-      </c>
-      <c r="E31" s="14">
-        <v>1983</v>
-      </c>
-      <c r="F31" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G31" s="14">
-        <v>692557</v>
-      </c>
-      <c r="H31" s="14">
-        <v>67337</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C32" s="10">
-        <v>29</v>
-      </c>
-      <c r="D32" s="15">
-        <v>11434</v>
-      </c>
-      <c r="E32" s="15">
-        <v>1951</v>
-      </c>
-      <c r="F32" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G32" s="15">
-        <v>681123</v>
-      </c>
-      <c r="H32" s="15">
-        <v>69288</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C33" s="13">
-        <v>30</v>
-      </c>
-      <c r="D33" s="14">
-        <v>11467</v>
-      </c>
-      <c r="E33" s="14">
-        <v>1918</v>
-      </c>
-      <c r="F33" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G33" s="14">
-        <v>669656</v>
-      </c>
-      <c r="H33" s="14">
-        <v>71206</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C34" s="10">
-        <v>31</v>
-      </c>
-      <c r="D34" s="15">
-        <v>11499</v>
-      </c>
-      <c r="E34" s="15">
-        <v>1886</v>
-      </c>
-      <c r="F34" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G34" s="15">
-        <v>658157</v>
-      </c>
-      <c r="H34" s="15">
-        <v>73092</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C35" s="13">
-        <v>32</v>
-      </c>
-      <c r="D35" s="14">
-        <v>11531</v>
-      </c>
-      <c r="E35" s="14">
-        <v>1854</v>
-      </c>
-      <c r="F35" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G35" s="14">
-        <v>646626</v>
-      </c>
-      <c r="H35" s="14">
-        <v>74946</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C36" s="10">
-        <v>33</v>
-      </c>
-      <c r="D36" s="15">
-        <v>11564</v>
-      </c>
-      <c r="E36" s="15">
-        <v>1821</v>
-      </c>
-      <c r="F36" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G36" s="15">
-        <v>635062</v>
-      </c>
-      <c r="H36" s="15">
-        <v>76767</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C37" s="13">
-        <v>34</v>
-      </c>
-      <c r="D37" s="14">
-        <v>11596</v>
-      </c>
-      <c r="E37" s="14">
-        <v>1789</v>
-      </c>
-      <c r="F37" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G37" s="14">
-        <v>623466</v>
-      </c>
-      <c r="H37" s="14">
-        <v>78556</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C38" s="10">
-        <v>35</v>
-      </c>
-      <c r="D38" s="15">
-        <v>11629</v>
-      </c>
-      <c r="E38" s="15">
-        <v>1756</v>
-      </c>
-      <c r="F38" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G38" s="15">
-        <v>611837</v>
-      </c>
-      <c r="H38" s="15">
-        <v>80312</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C39" s="13">
-        <v>36</v>
-      </c>
-      <c r="D39" s="14">
-        <v>11662</v>
-      </c>
-      <c r="E39" s="14">
-        <v>1723</v>
-      </c>
-      <c r="F39" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G39" s="14">
-        <v>600175</v>
-      </c>
-      <c r="H39" s="14">
-        <v>82035</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C40" s="10">
-        <v>37</v>
-      </c>
-      <c r="D40" s="15">
-        <v>11695</v>
-      </c>
-      <c r="E40" s="15">
-        <v>1690</v>
-      </c>
-      <c r="F40" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G40" s="15">
-        <v>588480</v>
-      </c>
-      <c r="H40" s="15">
-        <v>83725</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C41" s="13">
-        <v>38</v>
-      </c>
-      <c r="D41" s="14">
-        <v>11727</v>
-      </c>
-      <c r="E41" s="14">
-        <v>1658</v>
-      </c>
-      <c r="F41" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G41" s="14">
-        <v>576753</v>
-      </c>
-      <c r="H41" s="14">
-        <v>85383</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C42" s="10">
-        <v>39</v>
-      </c>
-      <c r="D42" s="15">
-        <v>11760</v>
-      </c>
-      <c r="E42" s="15">
-        <v>1625</v>
-      </c>
-      <c r="F42" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G42" s="15">
-        <v>564993</v>
-      </c>
-      <c r="H42" s="15">
-        <v>87008</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C43" s="13">
-        <v>40</v>
-      </c>
-      <c r="D43" s="14">
-        <v>11794</v>
-      </c>
-      <c r="E43" s="14">
-        <v>1591</v>
-      </c>
-      <c r="F43" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G43" s="14">
-        <v>553199</v>
-      </c>
-      <c r="H43" s="14">
-        <v>88599</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C44" s="10">
-        <v>41</v>
-      </c>
-      <c r="D44" s="15">
-        <v>11827</v>
-      </c>
-      <c r="E44" s="15">
-        <v>1558</v>
-      </c>
-      <c r="F44" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G44" s="15">
-        <v>541372</v>
-      </c>
-      <c r="H44" s="15">
-        <v>90157</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C45" s="13">
-        <v>42</v>
-      </c>
-      <c r="D45" s="14">
-        <v>11860</v>
-      </c>
-      <c r="E45" s="14">
-        <v>1525</v>
-      </c>
-      <c r="F45" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G45" s="14">
-        <v>529512</v>
-      </c>
-      <c r="H45" s="14">
-        <v>91682</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C46" s="10">
-        <v>43</v>
-      </c>
-      <c r="D46" s="15">
-        <v>11894</v>
-      </c>
-      <c r="E46" s="15">
-        <v>1491</v>
-      </c>
-      <c r="F46" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G46" s="15">
-        <v>517618</v>
-      </c>
-      <c r="H46" s="15">
-        <v>93173</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C47" s="13">
-        <v>44</v>
-      </c>
-      <c r="D47" s="14">
-        <v>11927</v>
-      </c>
-      <c r="E47" s="14">
-        <v>1458</v>
-      </c>
-      <c r="F47" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G47" s="14">
-        <v>505691</v>
-      </c>
-      <c r="H47" s="14">
-        <v>94631</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C48" s="10">
-        <v>45</v>
-      </c>
-      <c r="D48" s="15">
-        <v>11961</v>
-      </c>
-      <c r="E48" s="15">
-        <v>1424</v>
-      </c>
-      <c r="F48" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G48" s="15">
-        <v>493730</v>
-      </c>
-      <c r="H48" s="15">
-        <v>96055</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C49" s="13">
-        <v>46</v>
-      </c>
-      <c r="D49" s="14">
-        <v>11994</v>
-      </c>
-      <c r="E49" s="14">
-        <v>1391</v>
-      </c>
-      <c r="F49" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G49" s="14">
-        <v>481736</v>
-      </c>
-      <c r="H49" s="14">
-        <v>97446</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C50" s="10">
-        <v>47</v>
-      </c>
-      <c r="D50" s="15">
-        <v>12028</v>
-      </c>
-      <c r="E50" s="15">
-        <v>1357</v>
-      </c>
-      <c r="F50" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G50" s="15">
-        <v>469708</v>
-      </c>
-      <c r="H50" s="15">
-        <v>98803</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C51" s="13">
-        <v>48</v>
-      </c>
-      <c r="D51" s="14">
-        <v>12062</v>
-      </c>
-      <c r="E51" s="14">
-        <v>1323</v>
-      </c>
-      <c r="F51" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G51" s="14">
-        <v>457646</v>
-      </c>
-      <c r="H51" s="14">
-        <v>100126</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C52" s="10">
-        <v>49</v>
-      </c>
-      <c r="D52" s="15">
-        <v>12096</v>
-      </c>
-      <c r="E52" s="15">
-        <v>1289</v>
-      </c>
-      <c r="F52" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G52" s="15">
-        <v>445550</v>
-      </c>
-      <c r="H52" s="15">
-        <v>101415</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C53" s="13">
-        <v>50</v>
-      </c>
-      <c r="D53" s="14">
-        <v>12130</v>
-      </c>
-      <c r="E53" s="14">
-        <v>1255</v>
-      </c>
-      <c r="F53" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G53" s="14">
-        <v>433420</v>
-      </c>
-      <c r="H53" s="14">
-        <v>102670</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C54" s="10">
-        <v>51</v>
-      </c>
-      <c r="D54" s="15">
-        <v>12164</v>
-      </c>
-      <c r="E54" s="15">
-        <v>1221</v>
-      </c>
-      <c r="F54" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G54" s="15">
-        <v>421256</v>
-      </c>
-      <c r="H54" s="15">
-        <v>103891</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C55" s="13">
-        <v>52</v>
-      </c>
-      <c r="D55" s="14">
-        <v>12198</v>
-      </c>
-      <c r="E55" s="14">
-        <v>1187</v>
-      </c>
-      <c r="F55" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G55" s="14">
-        <v>409058</v>
-      </c>
-      <c r="H55" s="14">
-        <v>105078</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C56" s="10">
-        <v>53</v>
-      </c>
-      <c r="D56" s="15">
-        <v>12233</v>
-      </c>
-      <c r="E56" s="15">
-        <v>1152</v>
-      </c>
-      <c r="F56" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G56" s="15">
-        <v>396825</v>
-      </c>
-      <c r="H56" s="15">
-        <v>106230</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C57" s="13">
-        <v>54</v>
-      </c>
-      <c r="D57" s="14">
-        <v>12267</v>
-      </c>
-      <c r="E57" s="14">
-        <v>1118</v>
-      </c>
-      <c r="F57" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G57" s="14">
-        <v>384558</v>
-      </c>
-      <c r="H57" s="14">
-        <v>107348</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C58" s="10">
-        <v>55</v>
-      </c>
-      <c r="D58" s="15">
-        <v>12302</v>
-      </c>
-      <c r="E58" s="15">
-        <v>1083</v>
-      </c>
-      <c r="F58" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G58" s="15">
-        <v>372256</v>
-      </c>
-      <c r="H58" s="15">
-        <v>108431</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C59" s="13">
-        <v>56</v>
-      </c>
-      <c r="D59" s="14">
-        <v>12336</v>
-      </c>
-      <c r="E59" s="14">
-        <v>1049</v>
-      </c>
-      <c r="F59" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G59" s="14">
-        <v>359920</v>
-      </c>
-      <c r="H59" s="14">
-        <v>109480</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C60" s="10">
-        <v>57</v>
-      </c>
-      <c r="D60" s="15">
-        <v>12371</v>
-      </c>
-      <c r="E60" s="15">
-        <v>1014</v>
-      </c>
-      <c r="F60" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G60" s="15">
-        <v>347549</v>
-      </c>
-      <c r="H60" s="15">
-        <v>110494</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C61" s="13">
-        <v>58</v>
-      </c>
-      <c r="D61" s="14">
-        <v>12406</v>
-      </c>
-      <c r="E61" s="13">
-        <v>979</v>
-      </c>
-      <c r="F61" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G61" s="14">
-        <v>335143</v>
-      </c>
-      <c r="H61" s="14">
-        <v>111473</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C62" s="10">
-        <v>59</v>
-      </c>
-      <c r="D62" s="15">
-        <v>12441</v>
-      </c>
-      <c r="E62" s="10">
-        <v>944</v>
-      </c>
-      <c r="F62" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G62" s="15">
-        <v>322702</v>
-      </c>
-      <c r="H62" s="15">
-        <v>112417</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C63" s="13">
-        <v>60</v>
-      </c>
-      <c r="D63" s="14">
-        <v>12476</v>
-      </c>
-      <c r="E63" s="13">
-        <v>909</v>
-      </c>
-      <c r="F63" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G63" s="14">
-        <v>310226</v>
-      </c>
-      <c r="H63" s="14">
-        <v>113326</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C64" s="10">
-        <v>61</v>
-      </c>
-      <c r="D64" s="15">
-        <v>12511</v>
-      </c>
-      <c r="E64" s="10">
-        <v>874</v>
-      </c>
-      <c r="F64" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G64" s="15">
-        <v>297715</v>
-      </c>
-      <c r="H64" s="15">
-        <v>114200</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C65" s="13">
-        <v>62</v>
-      </c>
-      <c r="D65" s="14">
-        <v>12546</v>
-      </c>
-      <c r="E65" s="13">
-        <v>839</v>
-      </c>
-      <c r="F65" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G65" s="14">
-        <v>285169</v>
-      </c>
-      <c r="H65" s="14">
-        <v>115039</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C66" s="10">
-        <v>63</v>
-      </c>
-      <c r="D66" s="15">
-        <v>12582</v>
-      </c>
-      <c r="E66" s="10">
-        <v>803</v>
-      </c>
-      <c r="F66" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G66" s="15">
-        <v>272587</v>
-      </c>
-      <c r="H66" s="15">
-        <v>115842</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C67" s="13">
-        <v>64</v>
-      </c>
-      <c r="D67" s="14">
-        <v>12617</v>
-      </c>
-      <c r="E67" s="13">
-        <v>768</v>
-      </c>
-      <c r="F67" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G67" s="14">
-        <v>259970</v>
-      </c>
-      <c r="H67" s="14">
-        <v>116610</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C68" s="10">
-        <v>65</v>
-      </c>
-      <c r="D68" s="15">
-        <v>12653</v>
-      </c>
-      <c r="E68" s="10">
-        <v>732</v>
-      </c>
-      <c r="F68" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G68" s="15">
-        <v>247317</v>
-      </c>
-      <c r="H68" s="15">
-        <v>117342</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C69" s="13">
-        <v>66</v>
-      </c>
-      <c r="D69" s="14">
-        <v>12688</v>
-      </c>
-      <c r="E69" s="13">
-        <v>697</v>
-      </c>
-      <c r="F69" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G69" s="14">
-        <v>234629</v>
-      </c>
-      <c r="H69" s="14">
-        <v>118039</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C70" s="10">
-        <v>67</v>
-      </c>
-      <c r="D70" s="15">
-        <v>12724</v>
-      </c>
-      <c r="E70" s="10">
-        <v>661</v>
-      </c>
-      <c r="F70" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G70" s="15">
-        <v>221905</v>
-      </c>
-      <c r="H70" s="15">
-        <v>118700</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C71" s="13">
-        <v>68</v>
-      </c>
-      <c r="D71" s="14">
-        <v>12760</v>
-      </c>
-      <c r="E71" s="13">
-        <v>625</v>
-      </c>
-      <c r="F71" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G71" s="14">
-        <v>209145</v>
-      </c>
-      <c r="H71" s="14">
-        <v>119325</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C72" s="10">
-        <v>69</v>
-      </c>
-      <c r="D72" s="15">
-        <v>12796</v>
-      </c>
-      <c r="E72" s="10">
-        <v>589</v>
-      </c>
-      <c r="F72" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G72" s="15">
-        <v>196349</v>
-      </c>
-      <c r="H72" s="15">
-        <v>119914</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C73" s="13">
-        <v>70</v>
-      </c>
-      <c r="D73" s="14">
-        <v>12832</v>
-      </c>
-      <c r="E73" s="13">
-        <v>553</v>
-      </c>
-      <c r="F73" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G73" s="14">
-        <v>183517</v>
-      </c>
-      <c r="H73" s="14">
-        <v>120467</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C74" s="10">
-        <v>71</v>
-      </c>
-      <c r="D74" s="15">
-        <v>12868</v>
-      </c>
-      <c r="E74" s="10">
-        <v>517</v>
-      </c>
-      <c r="F74" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G74" s="15">
-        <v>170649</v>
-      </c>
-      <c r="H74" s="15">
-        <v>120984</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C75" s="13">
-        <v>72</v>
-      </c>
-      <c r="D75" s="14">
-        <v>12904</v>
-      </c>
-      <c r="E75" s="13">
-        <v>481</v>
-      </c>
-      <c r="F75" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G75" s="14">
-        <v>157745</v>
-      </c>
-      <c r="H75" s="14">
-        <v>121465</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C76" s="10">
-        <v>73</v>
-      </c>
-      <c r="D76" s="15">
-        <v>12941</v>
-      </c>
-      <c r="E76" s="10">
-        <v>444</v>
-      </c>
-      <c r="F76" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G76" s="15">
-        <v>144804</v>
-      </c>
-      <c r="H76" s="15">
-        <v>121909</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C77" s="13">
-        <v>74</v>
-      </c>
-      <c r="D77" s="14">
-        <v>12977</v>
-      </c>
-      <c r="E77" s="13">
-        <v>408</v>
-      </c>
-      <c r="F77" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G77" s="14">
-        <v>131827</v>
-      </c>
-      <c r="H77" s="14">
-        <v>122317</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C78" s="10">
-        <v>75</v>
-      </c>
-      <c r="D78" s="15">
-        <v>13014</v>
-      </c>
-      <c r="E78" s="10">
-        <v>371</v>
-      </c>
-      <c r="F78" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G78" s="15">
-        <v>118813</v>
-      </c>
-      <c r="H78" s="15">
-        <v>122688</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C79" s="13">
-        <v>76</v>
-      </c>
-      <c r="D79" s="14">
-        <v>13050</v>
-      </c>
-      <c r="E79" s="13">
-        <v>335</v>
-      </c>
-      <c r="F79" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G79" s="14">
-        <v>105763</v>
-      </c>
-      <c r="H79" s="14">
-        <v>123023</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C80" s="10">
-        <v>77</v>
-      </c>
-      <c r="D80" s="15">
-        <v>13087</v>
-      </c>
-      <c r="E80" s="10">
-        <v>298</v>
-      </c>
-      <c r="F80" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G80" s="15">
-        <v>92676</v>
-      </c>
-      <c r="H80" s="15">
-        <v>123321</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C81" s="13">
-        <v>78</v>
-      </c>
-      <c r="D81" s="14">
-        <v>13124</v>
-      </c>
-      <c r="E81" s="13">
-        <v>261</v>
-      </c>
-      <c r="F81" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G81" s="14">
-        <v>79552</v>
-      </c>
-      <c r="H81" s="14">
-        <v>123582</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C82" s="10">
-        <v>79</v>
-      </c>
-      <c r="D82" s="15">
-        <v>13161</v>
-      </c>
-      <c r="E82" s="10">
-        <v>224</v>
-      </c>
-      <c r="F82" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G82" s="15">
-        <v>66391</v>
-      </c>
-      <c r="H82" s="15">
-        <v>123806</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C83" s="13">
-        <v>80</v>
-      </c>
-      <c r="D83" s="14">
-        <v>13198</v>
-      </c>
-      <c r="E83" s="13">
-        <v>187</v>
-      </c>
-      <c r="F83" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G83" s="14">
-        <v>53193</v>
-      </c>
-      <c r="H83" s="14">
-        <v>123993</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C84" s="10">
-        <v>81</v>
-      </c>
-      <c r="D84" s="15">
-        <v>13235</v>
-      </c>
-      <c r="E84" s="10">
-        <v>150</v>
-      </c>
-      <c r="F84" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G84" s="15">
-        <v>39958</v>
-      </c>
-      <c r="H84" s="15">
-        <v>124143</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C85" s="13">
-        <v>82</v>
-      </c>
-      <c r="D85" s="14">
-        <v>13272</v>
-      </c>
-      <c r="E85" s="13">
-        <v>113</v>
-      </c>
-      <c r="F85" s="14">
-        <v>13385</v>
-      </c>
-      <c r="G85" s="14">
-        <v>26686</v>
-      </c>
-      <c r="H85" s="14">
-        <v>124256</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C86" s="10">
-        <v>83</v>
-      </c>
-      <c r="D86" s="15">
-        <v>13310</v>
-      </c>
-      <c r="E86" s="10">
-        <v>75</v>
-      </c>
-      <c r="F86" s="15">
-        <v>13385</v>
-      </c>
-      <c r="G86" s="15">
-        <v>13376</v>
-      </c>
-      <c r="H86" s="15">
-        <v>124331</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C87" s="13">
-        <v>84</v>
-      </c>
-      <c r="D87" s="14">
-        <v>13376</v>
-      </c>
-      <c r="E87" s="13">
-        <v>38</v>
-      </c>
-      <c r="F87" s="14">
-        <v>13414</v>
-      </c>
-      <c r="G87" s="13">
-        <v>0</v>
-      </c>
-      <c r="H87" s="14">
-        <v>124369</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C88" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="15">
-        <v>1000000</v>
-      </c>
-      <c r="E88" s="15">
-        <v>124369</v>
-      </c>
-      <c r="F88" s="15">
-        <v>1124369</v>
-      </c>
-      <c r="G88" s="10">
-        <v>0</v>
-      </c>
-      <c r="H88" s="15">
-        <v>124369</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
@@ -9916,7 +8087,7 @@
     <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
@@ -9927,7 +8098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -9936,7 +8107,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44312</v>
       </c>
@@ -9957,7 +8128,7 @@
         <v>-9500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44312</v>
       </c>
@@ -9978,7 +8149,7 @@
         <v>-9250</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44312</v>
       </c>
@@ -9999,7 +8170,7 @@
         <v>-9000</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44312</v>
       </c>
@@ -10020,7 +8191,7 @@
         <v>-8500</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44312</v>
       </c>
@@ -10041,7 +8212,7 @@
         <v>-8250</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44320</v>
       </c>
@@ -10063,7 +8234,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44321</v>
       </c>
@@ -10078,7 +8249,7 @@
         <v>-699245</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44322</v>
       </c>
@@ -10093,7 +8264,7 @@
         <v>-234834</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44369</v>
       </c>
@@ -10110,7 +8281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44393</v>
       </c>
@@ -10128,7 +8299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44397</v>
       </c>
@@ -10149,7 +8320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44397</v>
       </c>
@@ -10168,12 +8339,12 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -10181,7 +8352,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -10198,7 +8369,7 @@
         <v>1040756</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -10212,7 +8383,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -10224,223 +8395,223 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E21" s="3">
         <f>SUM(D18:E18)</f>
         <v>1040756</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -10452,22 +8623,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -10475,7 +8646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -10483,7 +8654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -10491,182 +8662,182 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>103</v>
+      <c r="B4" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C34" t="s">
         <v>121</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>122</v>
       </c>
-      <c r="C31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C35" t="s">
         <v>123</v>
-      </c>
-      <c r="B32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -10684,10 +8855,10 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -10699,7 +8870,7 @@
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10713,12 +8884,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43004</v>
       </c>
@@ -10729,7 +8900,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43008</v>
       </c>
@@ -10740,7 +8911,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43068</v>
       </c>
@@ -10751,7 +8922,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43068</v>
       </c>
@@ -10762,7 +8933,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43073</v>
       </c>
@@ -10773,7 +8944,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43082</v>
       </c>
@@ -10784,7 +8955,7 @@
         <v>19041</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43112</v>
       </c>
@@ -10795,7 +8966,7 @@
         <v>45942</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1">
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -10803,7 +8974,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -10812,7 +8983,7 @@
         <v>70869</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -10821,7 +8992,7 @@
         <v>310869</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -10830,12 +9001,13 @@
         <v>0.29528749999999998</v>
       </c>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="+8nQz1JxMPTDcunuq6itCnRVAHey+dQvlAA12ZFXfE3Ohg/jW53J6lsqzrB1Yz5XpPeHqTtFF5TVmv7A6Zi70g==" saltValue="QbQek+1V6e/8d3IYwblxxA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10850,14 +9022,14 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10871,12 +9043,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43182</v>
       </c>
@@ -10890,7 +9062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43187</v>
       </c>
@@ -10904,7 +9076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43192</v>
       </c>
@@ -10918,7 +9090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43193</v>
       </c>
@@ -10932,7 +9104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43193</v>
       </c>
@@ -10944,7 +9116,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43200</v>
       </c>
@@ -10958,7 +9130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -10972,7 +9144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -10986,7 +9158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -11000,7 +9172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -11014,7 +9186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43224</v>
       </c>
@@ -11025,7 +9197,7 @@
         <v>11267</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43378</v>
       </c>
@@ -11036,7 +9208,7 @@
         <v>29515</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -11046,7 +9218,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -11055,7 +9227,7 @@
         <v>-57627</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -11064,7 +9236,7 @@
         <v>422373</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -11074,6 +9246,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="CO9RFgAZz30+spQFdU8xPGy5QscDEhUHJR/eBQaaSHtgBSUjYU28GOma4H75pSTGecxL/F/Rxe0LKcsGy52t/g==" saltValue="f3XYw9PmQ67bYCi6c5blgg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11087,7 +9260,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
@@ -11095,7 +9268,7 @@
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -11112,12 +9285,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43642</v>
       </c>
@@ -11128,7 +9301,7 @@
         <v>-19470</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43697</v>
       </c>
@@ -11139,7 +9312,7 @@
         <v>-1011</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43736</v>
       </c>
@@ -11150,7 +9323,7 @@
         <v>133266</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -11161,7 +9334,7 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -11170,7 +9343,7 @@
         <v>112785</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -11179,7 +9352,7 @@
         <v>832785</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -11189,6 +9362,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="7N0YW++fnGQ0iL9u8a8er5V5sgmgXfzG61o/I9zF+ECuXFteXaSUdZgdLqBv+K84ADaa39F2qAtdtBLspL3IxA==" saltValue="6cY6aj8+d6Oy16SNPVtgMA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11202,7 +9376,7 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -11210,7 +9384,7 @@
     <col min="4" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -11227,7 +9401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -11235,7 +9409,7 @@
         <v>1017594</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43860</v>
       </c>
@@ -11247,7 +9421,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43878</v>
       </c>
@@ -11259,7 +9433,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44099</v>
       </c>
@@ -11271,7 +9445,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44120</v>
       </c>
@@ -11283,7 +9457,7 @@
         <v>11020</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44165</v>
       </c>
@@ -11301,7 +9475,7 @@
         <v>78851</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44166</v>
       </c>
@@ -11319,7 +9493,7 @@
         <v>225898</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44167</v>
       </c>
@@ -11337,7 +9511,7 @@
         <v>349749</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44168</v>
       </c>
@@ -11355,47 +9529,47 @@
         <v>561502</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="26.25" customHeight="1">
+    <row r="18" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -11403,7 +9577,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -11420,13 +9594,13 @@
         <v>1216000</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -11438,13 +9612,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" s="3">
         <f>SUM(D21:E21)</f>
         <v>1216000</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="iZPkVfZQTXIvkvSozs9aQC6RWhxrfz0IqqbBYi6gBMZWlBN7fpXovtXFgzWVpSAytKI20RH0Ag9gOvSc3+b3uw==" saltValue="7M5mQkrHIxY5TO/277aDyQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11455,12 +9630,12 @@
   <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I36" sqref="I36"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
@@ -11476,7 +9651,7 @@
     <col min="15" max="17" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -11493,7 +9668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>52</v>
       </c>
@@ -11531,7 +9706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -11540,7 +9715,7 @@
         <v>1216000</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -11549,7 +9724,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -11590,7 +9765,7 @@
         <v>10875</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>46</v>
@@ -11618,7 +9793,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>77</v>
@@ -11640,7 +9815,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44201</v>
       </c>
@@ -11655,7 +9830,7 @@
         <v>-167237</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44204</v>
       </c>
@@ -11670,7 +9845,7 @@
         <v>-122673</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44209</v>
       </c>
@@ -11685,7 +9860,7 @@
         <v>-846204</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44210</v>
       </c>
@@ -11704,7 +9879,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44210</v>
       </c>
@@ -11722,7 +9897,7 @@
         <v>513717</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44211</v>
       </c>
@@ -11747,7 +9922,7 @@
         <v>345285</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44214</v>
       </c>
@@ -11772,7 +9947,7 @@
         <v>180269</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44216</v>
       </c>
@@ -11797,7 +9972,7 @@
         <v>61042</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44217</v>
       </c>
@@ -11819,7 +9994,7 @@
         <v>48415</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44218</v>
       </c>
@@ -11841,7 +10016,7 @@
         <v>12424</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44219</v>
       </c>
@@ -11863,7 +10038,7 @@
         <v>7455</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44222</v>
       </c>
@@ -11888,7 +10063,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44223</v>
       </c>
@@ -11910,7 +10085,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44224</v>
       </c>
@@ -11935,7 +10110,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44225</v>
       </c>
@@ -11957,7 +10132,7 @@
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44225</v>
       </c>
@@ -11980,7 +10155,7 @@
         <v>-7276</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44228</v>
       </c>
@@ -12002,7 +10177,7 @@
         <v>-7432</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44229</v>
       </c>
@@ -12027,7 +10202,7 @@
         <v>-15526</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44230</v>
       </c>
@@ -12052,7 +10227,7 @@
         <v>630530</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44231</v>
       </c>
@@ -12074,7 +10249,7 @@
         <v>370161</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44232</v>
       </c>
@@ -12096,7 +10271,7 @@
         <v>1000691</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44232</v>
       </c>
@@ -12111,7 +10286,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44243</v>
       </c>
@@ -12123,7 +10298,7 @@
         <v>-5624</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44244</v>
       </c>
@@ -12138,7 +10313,7 @@
         <v>-353002</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44245</v>
       </c>
@@ -12153,7 +10328,7 @@
         <v>-375033</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44250</v>
       </c>
@@ -12168,7 +10343,7 @@
         <v>-156221</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44251</v>
       </c>
@@ -12186,7 +10361,7 @@
         <v>163481</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44253</v>
       </c>
@@ -12204,7 +10379,7 @@
         <v>1086676</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44257</v>
       </c>
@@ -12219,7 +10394,7 @@
         <v>-308438</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44257</v>
       </c>
@@ -12234,7 +10409,7 @@
         <v>-172745</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44257</v>
       </c>
@@ -12249,7 +10424,7 @@
         <v>-731790</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44257</v>
       </c>
@@ -12264,7 +10439,7 @@
         <v>-174247</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44257</v>
       </c>
@@ -12279,7 +10454,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44258</v>
       </c>
@@ -12297,7 +10472,7 @@
         <v>301162</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44259</v>
       </c>
@@ -12312,7 +10487,7 @@
         <v>-225921</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44260</v>
       </c>
@@ -12327,7 +10502,7 @@
         <v>10996</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44274</v>
       </c>
@@ -12345,7 +10520,7 @@
         <v>186671</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44277</v>
       </c>
@@ -12363,7 +10538,7 @@
         <v>1132468</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44277</v>
       </c>
@@ -12378,7 +10553,7 @@
         <v>-678464</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44278</v>
       </c>
@@ -12393,7 +10568,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44279</v>
       </c>
@@ -12408,7 +10583,7 @@
         <v>-649423</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44280</v>
       </c>
@@ -12426,7 +10601,7 @@
         <v>493806</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44280</v>
       </c>
@@ -12441,7 +10616,7 @@
         <v>-84219</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44280</v>
       </c>
@@ -12456,7 +10631,7 @@
         <v>-211551</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44281</v>
       </c>
@@ -12471,7 +10646,7 @@
         <v>-254762</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44286</v>
       </c>
@@ -12489,7 +10664,7 @@
         <v>1246063</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44286</v>
       </c>
@@ -12504,7 +10679,7 @@
         <v>-1306859</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44287</v>
       </c>
@@ -12522,7 +10697,7 @@
         <v>1369713</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44287</v>
       </c>
@@ -12537,7 +10712,7 @@
         <v>-8941</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1">
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44292</v>
       </c>
@@ -12552,7 +10727,7 @@
         <v>9733</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44292</v>
       </c>
@@ -12567,7 +10742,7 @@
         <v>-167738</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44293</v>
       </c>
@@ -12582,7 +10757,7 @@
         <v>-337980</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44293</v>
       </c>
@@ -12597,7 +10772,7 @@
         <v>-849858</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44312</v>
       </c>
@@ -12612,7 +10787,7 @@
         <v>-36051</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44320</v>
       </c>
@@ -12630,7 +10805,7 @@
         <v>1792155</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44321</v>
       </c>
@@ -12645,7 +10820,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44321</v>
       </c>
@@ -12660,7 +10835,7 @@
         <v>-168740</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44321</v>
       </c>
@@ -12675,7 +10850,7 @@
         <v>-167738</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44321</v>
       </c>
@@ -12690,7 +10865,7 @@
         <v>-168239</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44321</v>
       </c>
@@ -12705,7 +10880,7 @@
         <v>-237838</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44321</v>
       </c>
@@ -12720,7 +10895,7 @@
         <v>-237838</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44321</v>
       </c>
@@ -12735,7 +10910,7 @@
         <v>-146458</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44321</v>
       </c>
@@ -12750,7 +10925,7 @@
         <v>-97739</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44322</v>
       </c>
@@ -12765,7 +10940,7 @@
         <v>-510726</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="19.5" customHeight="1">
+    <row r="72" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44326</v>
       </c>
@@ -12780,7 +10955,7 @@
         <v>-47517</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44333</v>
       </c>
@@ -12795,7 +10970,7 @@
         <v>-40357</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44349</v>
       </c>
@@ -12813,7 +10988,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44368</v>
       </c>
@@ -12828,7 +11003,7 @@
         <v>-41659</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44369</v>
       </c>
@@ -12853,7 +11028,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44369</v>
       </c>
@@ -12868,7 +11043,7 @@
         <v>-112159</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44369</v>
       </c>
@@ -12883,7 +11058,7 @@
         <v>-500512</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44382</v>
       </c>
@@ -12898,7 +11073,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44390</v>
       </c>
@@ -12917,7 +11092,7 @@
       </c>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44390</v>
       </c>
@@ -12932,7 +11107,7 @@
         <v>-44513</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44390</v>
       </c>
@@ -12947,7 +11122,7 @@
         <v>-44363</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44393</v>
       </c>
@@ -12968,7 +11143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44393</v>
       </c>
@@ -12985,7 +11160,7 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44397</v>
       </c>
@@ -13003,7 +11178,7 @@
         <v>235455</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44397</v>
       </c>
@@ -13025,7 +11200,7 @@
       </c>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44397</v>
       </c>
@@ -13047,7 +11222,7 @@
       </c>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44399</v>
       </c>
@@ -13064,7 +11239,7 @@
       <c r="I88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44400</v>
       </c>
@@ -13084,7 +11259,7 @@
       <c r="I89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44399</v>
       </c>
@@ -13101,7 +11276,7 @@
       <c r="I90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44400</v>
       </c>
@@ -13121,7 +11296,7 @@
       <c r="I91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44404</v>
       </c>
@@ -13138,7 +11313,7 @@
       <c r="I92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44405</v>
       </c>
@@ -13158,7 +11333,7 @@
       <c r="I93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44412</v>
       </c>
@@ -13175,7 +11350,7 @@
       <c r="I94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44445</v>
       </c>
@@ -13192,7 +11367,7 @@
       <c r="I95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44447</v>
       </c>
@@ -13209,7 +11384,7 @@
       <c r="I96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44449</v>
       </c>
@@ -13226,7 +11401,7 @@
       <c r="I97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44455</v>
       </c>
@@ -13243,7 +11418,7 @@
       <c r="I98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44466</v>
       </c>
@@ -13260,7 +11435,7 @@
       <c r="I99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44470</v>
       </c>
@@ -13277,7 +11452,7 @@
       <c r="I100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44470</v>
       </c>
@@ -13294,7 +11469,7 @@
       <c r="I101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44470</v>
       </c>
@@ -13311,7 +11486,7 @@
       <c r="I102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44473</v>
       </c>
@@ -13328,7 +11503,7 @@
       <c r="I103" s="3"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44474</v>
       </c>
@@ -13345,7 +11520,7 @@
       <c r="I104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44505</v>
       </c>
@@ -13362,7 +11537,7 @@
       <c r="I105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44505</v>
       </c>
@@ -13379,7 +11554,7 @@
       <c r="I106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44518</v>
       </c>
@@ -13396,7 +11571,7 @@
       <c r="I107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44518</v>
       </c>
@@ -13416,7 +11591,7 @@
       <c r="I108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44518</v>
       </c>
@@ -13433,7 +11608,7 @@
       <c r="I109" s="3"/>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44525</v>
       </c>
@@ -13450,7 +11625,7 @@
       <c r="I110" s="3"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44535</v>
       </c>
@@ -13467,7 +11642,7 @@
       <c r="I111" s="3"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44547</v>
       </c>
@@ -13484,42 +11659,42 @@
       <c r="I112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="I113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="I114" s="3"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="I115" s="3"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="I116" s="3"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="I117" s="3"/>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>37</v>
       </c>
@@ -13527,7 +11702,7 @@
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -13544,7 +11719,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -13557,7 +11732,7 @@
         <v>1.8894903715860811E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -13569,19 +11744,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C122"/>
       <c r="E122" s="3">
         <f>SUM(D119:E119)</f>
         <v>2191067</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I123" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mlvWAplVOOCA0TUaknXou+7YPuzY6LewYgrSNTLmZ+FYo7nHiK2y7GCYx7KoPPicMJOxSfPQAIzZWHvpfYWElg==" saltValue="xj1Y5N+T/tkD2oUNvujsbg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:Q99"/>
   <sortState ref="G13:H25">
     <sortCondition descending="1" ref="H13:H25"/>
@@ -13604,11 +11780,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
@@ -13619,7 +11795,7 @@
     <col min="11" max="17" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -13636,7 +11812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
       <c r="F2" t="s">
         <v>52</v>
@@ -13675,9 +11851,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
@@ -13687,7 +11863,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -13698,9 +11874,9 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -13709,7 +11885,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -13753,7 +11929,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>46</v>
@@ -13782,7 +11958,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>77</v>
@@ -13808,10 +11984,10 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -13831,7 +12007,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="C10" s="3">
         <v>-5600</v>
@@ -13842,7 +12018,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -13885,7 +12061,7 @@
         <v>-13630</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44573</v>
       </c>
@@ -13901,7 +12077,7 @@
         <v>-891354</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44578</v>
       </c>
@@ -13917,7 +12093,7 @@
         <v>-148059</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44600</v>
       </c>
@@ -13935,12 +12111,12 @@
         <v>584009</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44600</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
@@ -13951,10 +12127,10 @@
         <v>-577730</v>
       </c>
       <c r="Q15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44601</v>
       </c>
@@ -13972,12 +12148,12 @@
         <v>445481</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44601</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -13988,12 +12164,12 @@
         <v>-458182</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44617</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3">
         <v>4540</v>
@@ -14006,7 +12182,7 @@
         <v>1040452</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44617</v>
       </c>
@@ -14022,7 +12198,7 @@
         <v>-430671</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44617</v>
       </c>
@@ -14038,7 +12214,7 @@
         <v>-284113</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44617</v>
       </c>
@@ -14054,7 +12230,7 @@
         <v>-141556</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44621</v>
       </c>
@@ -14070,7 +12246,7 @@
         <v>-140556</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44627</v>
       </c>
@@ -14086,7 +12262,7 @@
         <v>-53421</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44642</v>
       </c>
@@ -14104,12 +12280,12 @@
         <v>53815</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44645</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
@@ -14120,12 +12296,12 @@
         <v>-124049</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44672</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3">
         <v>2022</v>
@@ -14138,7 +12314,7 @@
         <v>126071</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44672</v>
       </c>
@@ -14154,12 +12330,12 @@
         <v>-136554</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44672</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C28" s="3">
         <v>-1402</v>
@@ -14172,7 +12348,7 @@
         <v>27308</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44719</v>
       </c>
@@ -14190,7 +12366,7 @@
         <v>12827</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44732</v>
       </c>
@@ -14206,7 +12382,7 @@
         <v>-18487</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="33" customHeight="1">
+    <row r="31" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44740</v>
       </c>
@@ -14224,7 +12400,7 @@
         <v>258120</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="33" customHeight="1">
+    <row r="32" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44740</v>
       </c>
@@ -14242,7 +12418,7 @@
         <v>129060</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="33" customHeight="1">
+    <row r="33" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44740</v>
       </c>
@@ -14260,7 +12436,7 @@
         <v>129060</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="33" customHeight="1">
+    <row r="34" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44740</v>
       </c>
@@ -14278,7 +12454,7 @@
         <v>129060</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44740</v>
       </c>
@@ -14296,12 +12472,12 @@
         <v>258120</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44740</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
@@ -14312,7 +12488,7 @@
         <v>-822744</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44741</v>
       </c>
@@ -14327,7 +12503,7 @@
         <v>-19432</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44742</v>
       </c>
@@ -14345,7 +12521,7 @@
         <v>126569</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44742</v>
       </c>
@@ -14361,7 +12537,7 @@
         <v>-173069</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44762</v>
       </c>
@@ -14379,12 +12555,12 @@
         <v>178991</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44762</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3">
@@ -14395,12 +12571,12 @@
         <v>-173469</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44783</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C42" s="3">
         <v>7583</v>
@@ -14413,12 +12589,12 @@
         <v>1003080</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44789</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3">
@@ -14429,12 +12605,12 @@
         <v>-1042045</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44816</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3">
         <v>1382</v>
@@ -14444,12 +12620,12 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44816</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3">
         <v>6161</v>
@@ -14459,7 +12635,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44820</v>
       </c>
@@ -14474,7 +12650,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44820</v>
       </c>
@@ -14490,12 +12666,12 @@
         <v>-137195</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44820</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C48" s="3">
         <v>-3301</v>
@@ -14505,12 +12681,12 @@
         <v>-3301</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44824</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C49" s="3">
         <v>-216829</v>
@@ -14523,12 +12699,12 @@
         <v>825186</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44824</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C50" s="3">
         <v>-11589</v>
@@ -14538,12 +12714,12 @@
         <v>-11589</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="21.75" customHeight="1">
+    <row r="51" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44825</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C51" s="3">
         <v>25693</v>
@@ -14553,7 +12729,7 @@
         <v>25693</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="21.75" customHeight="1">
+    <row r="52" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44826</v>
       </c>
@@ -14569,7 +12745,7 @@
         <v>-130185</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="21.75" customHeight="1">
+    <row r="53" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44830</v>
       </c>
@@ -14584,7 +12760,7 @@
         <v>-48337</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="21.75" customHeight="1">
+    <row r="54" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44830</v>
       </c>
@@ -14600,7 +12776,7 @@
         <v>-615245</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="21.75" customHeight="1">
+    <row r="55" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44831</v>
       </c>
@@ -14615,12 +12791,12 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="21.75" customHeight="1">
+    <row r="56" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44831</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C56" s="3">
         <v>-14496</v>
@@ -14630,12 +12806,12 @@
         <v>-14496</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="21.75" customHeight="1">
+    <row r="57" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44831</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C57" s="3">
         <v>-11187</v>
@@ -14645,12 +12821,12 @@
         <v>-11187</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="21.75" customHeight="1">
+    <row r="58" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44839</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C58" s="3">
         <v>699</v>
@@ -14660,7 +12836,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="21.75" customHeight="1">
+    <row r="59" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44845</v>
       </c>
@@ -14676,7 +12852,7 @@
         <v>-11254</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="21.75" customHeight="1">
+    <row r="60" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44846</v>
       </c>
@@ -14691,7 +12867,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="21.75" customHeight="1">
+    <row r="61" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44850</v>
       </c>
@@ -14707,7 +12883,7 @@
         <v>-22308</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="21.75" customHeight="1">
+    <row r="62" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44886</v>
       </c>
@@ -14723,51 +12899,51 @@
         <v>-11754</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="21.75" customHeight="1">
+    <row r="63" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" ht="21.75" customHeight="1">
+    <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:10" ht="21.75" customHeight="1">
+    <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:10" ht="21.75" customHeight="1">
+    <row r="66" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:10" ht="21.75" customHeight="1">
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>37</v>
       </c>
@@ -14777,7 +12953,7 @@
       <c r="E70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -14795,7 +12971,7 @@
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -14810,7 +12986,7 @@
       </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -14823,7 +12999,7 @@
       </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="E74" s="3">
         <f>SUM(D71:E71)</f>
@@ -14831,42 +13007,42 @@
       </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -14874,13 +13050,13 @@
       <c r="H80" s="3"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="C81" s="3"/>
       <c r="E81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -14888,305 +13064,305 @@
       <c r="H82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -15195,13 +13371,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -15211,50 +13387,50 @@
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -15262,27 +13438,27 @@
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -15290,7 +13466,7 @@
       <c r="I146" s="3"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -15298,7 +13474,7 @@
       <c r="I147" s="3"/>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -15306,7 +13482,7 @@
       <c r="I148" s="3"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -15314,7 +13490,7 @@
       <c r="I149" s="3"/>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -15322,7 +13498,7 @@
       <c r="I150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -15330,7 +13506,7 @@
       <c r="I151" s="3"/>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -15338,7 +13514,7 @@
       <c r="I152" s="3"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -15346,7 +13522,7 @@
       <c r="I153" s="3"/>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -15354,7 +13530,7 @@
       <c r="I154" s="3"/>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -15362,7 +13538,7 @@
       <c r="I155" s="3"/>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -15370,7 +13546,7 @@
       <c r="I156" s="3"/>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -15378,7 +13554,7 @@
       <c r="I157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -15386,7 +13562,7 @@
       <c r="I158" s="3"/>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -15394,7 +13570,7 @@
       <c r="I159" s="3"/>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -15402,7 +13578,7 @@
       <c r="I160" s="3"/>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -15410,7 +13586,7 @@
       <c r="I161" s="3"/>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -15418,7 +13594,7 @@
       <c r="I162" s="3"/>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -15426,7 +13602,7 @@
       <c r="I163" s="3"/>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -15434,7 +13610,7 @@
       <c r="I164" s="3"/>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -15442,7 +13618,7 @@
       <c r="I165" s="3"/>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -15450,7 +13626,7 @@
       <c r="I166" s="3"/>
       <c r="K166" s="3"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -15458,7 +13634,7 @@
       <c r="I167" s="3"/>
       <c r="K167" s="3"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -15466,13 +13642,14 @@
       <c r="I168" s="3"/>
       <c r="K168" s="3"/>
     </row>
-    <row r="179" spans="3:3">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="7">
         <f>'2022已實現損益'!C73</f>
         <v>-8.3564830287945535E-2</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="8WqaAzlZ7qxtAhKRgMLUniAmNYMPl032Eye/WGrSk+DnHSljE8WibqEDHMn3mxiy2FKIuQK4UzVg8+Ghy9IlxQ==" saltValue="SHx2XWqhInxcY50BM3bfJg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:Q57"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15484,11 +13661,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
@@ -15496,10 +13673,10 @@
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -15516,7 +13693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
       <c r="F2" t="s">
         <v>52</v>
@@ -15555,9 +13732,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
@@ -15567,14 +13744,14 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.25" customHeight="1">
+    <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <f>SUM(F4:Q4)</f>
-        <v>123252</v>
+        <v>130474</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
@@ -15600,12 +13777,14 @@
         <v>6838</v>
       </c>
       <c r="O4" s="3">
-        <v>23280</v>
-      </c>
-      <c r="P4" s="3"/>
+        <v>14913</v>
+      </c>
+      <c r="P4" s="3">
+        <v>15589</v>
+      </c>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -15632,7 +13811,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -15655,12 +13834,12 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <f>SUM(F7:Q7)</f>
-        <v>-137084</v>
+        <v>-164536</v>
       </c>
       <c r="F7" s="3">
         <v>-13682</v>
@@ -15692,12 +13871,16 @@
       <c r="O7" s="3">
         <v>-13726</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="P7" s="3">
+        <v>-13726</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-13726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -15717,9 +13900,9 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -15737,10 +13920,10 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -15764,12 +13947,12 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44565</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3">
         <v>962</v>
@@ -15790,12 +13973,12 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44567</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3">
         <v>130</v>
@@ -15816,12 +13999,12 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44571</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C13" s="3">
         <v>67301</v>
@@ -15834,12 +14017,12 @@
         <v>716608</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44591</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
@@ -15850,12 +14033,12 @@
         <v>-586835</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44593</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
@@ -15865,14 +14048,14 @@
         <f t="shared" si="0"/>
         <v>-150059</v>
       </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44607</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
@@ -15883,19 +14066,19 @@
         <v>-29211</v>
       </c>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J16" s="3">
         <f>SUMIFS($C$4:$C$114,$B$4:$B$114,I16)</f>
-        <v>192647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>192772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44633</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3">
         <v>-4415</v>
@@ -15908,12 +14091,12 @@
         <v>69813</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44635</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
@@ -15924,12 +14107,12 @@
         <v>-140199</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44669</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C19" s="3">
         <v>7276</v>
@@ -15942,12 +14125,12 @@
         <v>112318</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44670</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
@@ -15965,12 +14148,12 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44672</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
@@ -15989,12 +14172,12 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44677</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3">
         <v>-776</v>
@@ -16015,12 +14198,12 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44689</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3">
         <v>140</v>
@@ -16041,12 +14224,12 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44728</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C24" s="3">
         <v>314</v>
@@ -16066,12 +14249,12 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44731</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
@@ -16090,12 +14273,12 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44739</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C26" s="3">
         <v>5037</v>
@@ -16116,12 +14299,12 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44752</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3">
@@ -16140,12 +14323,12 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44759</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
@@ -16164,12 +14347,12 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44763</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
@@ -16188,12 +14371,12 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44777</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3">
         <v>5166</v>
@@ -16214,12 +14397,12 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44789</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
@@ -16238,12 +14421,12 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44801</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
@@ -16262,12 +14445,12 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45188</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C33" s="3">
         <v>-15</v>
@@ -16288,12 +14471,12 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45190</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
@@ -16312,12 +14495,12 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45191</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C35" s="3">
         <v>111527</v>
@@ -16335,12 +14518,12 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45210</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
@@ -16359,11 +14542,23 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="3">
+        <v>125</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-7077</v>
+      </c>
+      <c r="E37" s="3">
+        <f>$C37+ABS($D37)</f>
+        <v>7202</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -16373,7 +14568,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -16387,7 +14582,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -16401,7 +14596,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -16415,7 +14610,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -16429,10 +14624,10 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -16441,54 +14636,54 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="3">
         <f>SUM(C3:C42)</f>
-        <v>192647</v>
+        <v>192772</v>
       </c>
       <c r="D44" s="3">
         <f>SUM(D3:D43)</f>
-        <v>3502984</v>
+        <v>3495907</v>
       </c>
       <c r="E44" s="3">
         <f>SUM(E3:E43)</f>
-        <v>23300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>10272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="7">
         <f>D44/E47</f>
-        <v>0.99339247774711281</v>
+        <v>0.99707031500673526</v>
       </c>
       <c r="E45" s="7">
         <f>E44/E47</f>
-        <v>6.607522252887175E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2.9296849932647479E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="7">
         <f>C44/(E47-C44)</f>
-        <v>5.7788835437091679E-2</v>
+        <v>5.8179390578941857E-2</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
       <c r="E47" s="3">
         <f>SUM(D44:E44)</f>
-        <v>3526284</v>
+        <v>3506179</v>
       </c>
     </row>
   </sheetData>
@@ -16507,7 +14702,7 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
@@ -16516,7 +14711,7 @@
     <col min="7" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -16533,7 +14728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
       <c r="F2" t="s">
         <v>52</v>
@@ -16572,9 +14767,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
@@ -16582,7 +14777,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="17.25" customHeight="1">
+    <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -16601,7 +14796,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -16619,7 +14814,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -16637,7 +14832,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -16654,7 +14849,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -16668,7 +14863,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -16682,10 +14877,10 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -16694,7 +14889,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -16711,7 +14906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -16725,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -16737,7 +14932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="E15" s="3">
         <f>SUM(D12:E12)</f>

--- a/投資報酬計算表.xlsx
+++ b/投資報酬計算表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alen4\OneDrive\桌面\github\stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F647DCE3-7F64-4073-81AF-555B5295B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830" tabRatio="624" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="624" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="投資報酬率" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2021已實現損益'!$A$1:$Q$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2022已實現損益'!$A$1:$Q$57</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -549,7 +562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -707,7 +720,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -724,7 +737,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -921,6 +934,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-698B-4A52-A078-071520C5D19F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -1075,7 +1093,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1114,6 +1132,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1133,6 +1156,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1152,6 +1180,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1171,6 +1204,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1190,6 +1228,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1209,6 +1252,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1230,6 +1278,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1251,6 +1304,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1272,6 +1330,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1293,6 +1356,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1314,6 +1382,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1335,6 +1408,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1357,6 +1435,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-97BE-4D36-9A98-41CEAF94A488}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1394,6 +1477,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1430,6 +1518,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1466,6 +1559,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -1502,6 +1600,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -1538,6 +1641,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -1574,6 +1682,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -1612,6 +1725,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -1650,6 +1768,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -1688,6 +1811,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -1726,6 +1854,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -1764,6 +1897,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -1802,6 +1940,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
@@ -1841,6 +1984,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-97BE-4D36-9A98-41CEAF94A488}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -1970,6 +2118,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-97BE-4D36-9A98-41CEAF94A488}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -2029,7 +2182,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2124,7 +2277,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2165,6 +2317,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08C8-4E7A-8F5D-76CB2C98AE18}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -2319,7 +2476,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2358,6 +2515,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2377,6 +2539,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2396,6 +2563,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2415,6 +2587,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2434,6 +2611,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2453,6 +2635,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2474,6 +2661,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2495,6 +2687,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2516,6 +2713,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2537,6 +2739,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2558,6 +2765,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2579,6 +2791,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -2601,6 +2818,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-8C50-4884-88BD-0E571DEE0664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2638,6 +2860,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2674,6 +2901,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -2710,6 +2942,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2746,6 +2983,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -2782,6 +3024,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -2818,6 +3065,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -2856,6 +3108,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -2894,6 +3151,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -2932,6 +3194,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -2970,6 +3237,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -3008,6 +3280,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -3046,6 +3323,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
@@ -3085,6 +3367,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-8C50-4884-88BD-0E571DEE0664}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3142,6 +3429,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-8C50-4884-88BD-0E571DEE0664}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -5449,7 +5741,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5479,7 +5777,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5514,7 +5818,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5546,7 +5856,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5894,7 +6210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8071,7 +8387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8624,7 +8940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -8843,7 +9159,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8851,7 +9167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9015,7 +9331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9253,7 +9569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9369,7 +9685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9626,13 +9942,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I36" sqref="I36"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11757,9 +12073,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mlvWAplVOOCA0TUaknXou+7YPuzY6LewYgrSNTLmZ+FYo7nHiK2y7GCYx7KoPPicMJOxSfPQAIzZWHvpfYWElg==" saltValue="xj1Y5N+T/tkD2oUNvujsbg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:Q99"/>
-  <sortState ref="G13:H25">
+  <sheetProtection algorithmName="SHA-512" hashValue="lZ656c1VspBOd/E1D2KZdrF3viQVH3whPPKokJLKZWvbl2uG/BWiksdgT6YvdaUqSqfiSQicQtBtIZxk68ZIyA==" saltValue="w1Qpp8cDVcFQommHpbBJdg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:Q99" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G13:H25">
     <sortCondition descending="1" ref="H13:H25"/>
   </sortState>
   <dataConsolidate topLabels="1">
@@ -11777,7 +12093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q179"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
@@ -13650,7 +13966,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8WqaAzlZ7qxtAhKRgMLUniAmNYMPl032Eye/WGrSk+DnHSljE8WibqEDHMn3mxiy2FKIuQK4UzVg8+Ghy9IlxQ==" saltValue="SHx2XWqhInxcY50BM3bfJg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:Q57"/>
+  <autoFilter ref="A1:Q57" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13658,11 +13974,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13673,10 +13989,10 @@
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -13693,7 +14009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
       <c r="F2" t="s">
         <v>52</v>
@@ -13732,7 +14048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -13744,14 +14060,14 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <f>SUM(F4:Q4)</f>
-        <v>130474</v>
+        <v>136096</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
@@ -13782,9 +14098,11 @@
       <c r="P4" s="3">
         <v>15589</v>
       </c>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="3">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -13811,7 +14129,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -13834,12 +14152,12 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <f>SUM(F7:Q7)</f>
-        <v>-164536</v>
+        <f>SUM(F7:R7)</f>
+        <v>-178262</v>
       </c>
       <c r="F7" s="3">
         <v>-13682</v>
@@ -13877,8 +14195,11 @@
       <c r="Q7" s="3">
         <v>-13726</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="3">
+        <v>-13726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>126</v>
       </c>
@@ -13900,7 +14221,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>127</v>
       </c>
@@ -13920,7 +14241,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>99</v>
@@ -13947,7 +14268,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44565</v>
       </c>
@@ -13973,7 +14294,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44567</v>
       </c>
@@ -13999,7 +14320,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44571</v>
       </c>
@@ -14017,7 +14338,7 @@
         <v>716608</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44591</v>
       </c>
@@ -14033,7 +14354,7 @@
         <v>-586835</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44593</v>
       </c>
@@ -14050,7 +14371,7 @@
       </c>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44607</v>
       </c>
@@ -14650,7 +14971,7 @@
       </c>
       <c r="E44" s="3">
         <f>SUM(E3:E43)</f>
-        <v>10272</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -14660,11 +14981,11 @@
       <c r="C45" s="3"/>
       <c r="D45" s="7">
         <f>D44/E47</f>
-        <v>0.99707031500673526</v>
+        <v>0.99938023055537684</v>
       </c>
       <c r="E45" s="7">
         <f>E44/E47</f>
-        <v>2.9296849932647479E-3</v>
+        <v>6.1976944462311409E-4</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -14673,7 +14994,7 @@
       </c>
       <c r="C46" s="7">
         <f>C44/(E47-C44)</f>
-        <v>5.8179390578941857E-2</v>
+        <v>5.8322035831510757E-2</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>42</v>
@@ -14683,10 +15004,11 @@
       <c r="C47" s="3"/>
       <c r="E47" s="3">
         <f>SUM(D44:E44)</f>
-        <v>3506179</v>
+        <v>3498075</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14695,11 +15017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14773,9 +15095,11 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>3495907</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2168</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -14899,11 +15223,11 @@
       </c>
       <c r="D12" s="3">
         <f>SUM(D3:D11)</f>
-        <v>3000000</v>
+        <v>3495907</v>
       </c>
       <c r="E12" s="3">
         <f>SUM(E3:E11)</f>
-        <v>0</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -14913,11 +15237,11 @@
       <c r="C13" s="3"/>
       <c r="D13" s="7">
         <f>D12/E15</f>
-        <v>1</v>
+        <v>0.99938023055537684</v>
       </c>
       <c r="E13" s="7">
         <f>E12/E15</f>
-        <v>0</v>
+        <v>6.1976944462311409E-4</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -14936,7 +15260,7 @@
       <c r="C15" s="3"/>
       <c r="E15" s="3">
         <f>SUM(D12:E12)</f>
-        <v>3000000</v>
+        <v>3498075</v>
       </c>
     </row>
   </sheetData>

--- a/投資報酬計算表.xlsx
+++ b/投資報酬計算表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F647DCE3-7F64-4073-81AF-555B5295B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7F0E9-905B-4BF4-B7CB-72058A6979DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="624" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="136">
   <si>
     <t>被動收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,6 +557,18 @@
     <t>富邦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>香港換匯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信保費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -644,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,9 +681,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6213,8 +6221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6238,7 +6246,7 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G1" t="s">
@@ -6495,35 +6503,35 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+    <row r="12" spans="1:14" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>7</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f>FV($B$11,1,,-SUM($A$11,C10))</f>
         <v>4041048.0881999996</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f>C12-C10-$A$11</f>
         <v>673508.01469999971</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f t="shared" si="3"/>
         <v>141436.68308700001</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f t="shared" si="0"/>
         <v>11786.390257250001</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f>C12-C10</f>
         <v>923508.01469999971</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13">
+      <c r="J12" s="13"/>
+      <c r="K12" s="12">
         <v>2023</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <v>29</v>
       </c>
     </row>
@@ -8982,7 +8990,7 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C4" t="s">
@@ -9004,7 +9012,7 @@
       <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C10" t="s">
@@ -9946,7 +9954,7 @@
   <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I36" sqref="I36"/>
       <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
@@ -10310,7 +10318,7 @@
         <v>48415</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44218</v>
       </c>
@@ -10332,7 +10340,7 @@
         <v>12424</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44219</v>
       </c>
@@ -10354,7 +10362,7 @@
         <v>7455</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44222</v>
       </c>
@@ -10379,7 +10387,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44223</v>
       </c>
@@ -10401,7 +10409,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44224</v>
       </c>
@@ -10426,7 +10434,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44225</v>
       </c>
@@ -10446,9 +10454,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44225</v>
       </c>
@@ -10471,7 +10478,7 @@
         <v>-7276</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44228</v>
       </c>
@@ -10493,7 +10500,7 @@
         <v>-7432</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44229</v>
       </c>
@@ -10518,7 +10525,7 @@
         <v>-15526</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44230</v>
       </c>
@@ -10543,7 +10550,7 @@
         <v>630530</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44231</v>
       </c>
@@ -10565,7 +10572,7 @@
         <v>370161</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44232</v>
       </c>
@@ -10587,7 +10594,7 @@
         <v>1000691</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44232</v>
       </c>
@@ -10602,7 +10609,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44243</v>
       </c>
@@ -10614,7 +10621,7 @@
         <v>-5624</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44244</v>
       </c>
@@ -10629,7 +10636,7 @@
         <v>-353002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44245</v>
       </c>
@@ -12096,7 +12103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
@@ -13364,7 +13371,6 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="9"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
@@ -13977,8 +13983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14369,7 +14375,7 @@
         <f t="shared" si="0"/>
         <v>-150059</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -15018,10 +15024,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -15098,7 +15104,7 @@
         <v>3495907</v>
       </c>
       <c r="E3" s="3">
-        <v>2168</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15125,8 +15131,13 @@
         <v>46</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3">
+        <f>SUM(F5:Q5)</f>
+        <v>110076</v>
+      </c>
+      <c r="F5" s="3">
+        <v>110076</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -15138,7 +15149,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -15156,12 +15167,15 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>-40580</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -15173,94 +15187,141 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>-20000</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <f>SUM(F9:R9)</f>
+        <v>-13682</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>-13682</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>-5624</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3">
-        <f>SUM(C3:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <f>SUM(D3:D11)</f>
-        <v>3495907</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E3:E11)</f>
-        <v>2168</v>
-      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7">
-        <f>D12/E15</f>
-        <v>0.99938023055537684</v>
-      </c>
-      <c r="E13" s="7">
-        <f>E12/E15</f>
-        <v>6.1976944462311409E-4</v>
-      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SUM(C3:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(D3:D13)</f>
+        <v>3495907</v>
+      </c>
+      <c r="E14" s="3">
+        <f>SUM(E3:E13)</f>
+        <v>30358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7">
+        <f>D14/E17</f>
+        <v>0.99139089092850363</v>
+      </c>
+      <c r="E15" s="7">
+        <f>E14/E17</f>
+        <v>8.6091090714963282E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
-        <f>C12/(E15-C12)</f>
+      <c r="C16" s="7">
+        <f>C14/(E17-C14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="E15" s="3">
-        <f>SUM(D12:E12)</f>
-        <v>3498075</v>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="E17" s="3">
+        <f>SUM(D14:E14)</f>
+        <v>3526265</v>
       </c>
     </row>
   </sheetData>

--- a/投資報酬計算表.xlsx
+++ b/投資報酬計算表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7F0E9-905B-4BF4-B7CB-72058A6979DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D5A16-75E6-4960-8EE5-22379F6C5731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="624" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="136">
   <si>
     <t>被動收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,9 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>401411342@gms.tku.edu.tw</t>
-  </si>
-  <si>
     <t>hahow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,10 +517,6 @@
   </si>
   <si>
     <t>alen1234</t>
-  </si>
-  <si>
-    <t>walkyoung500!QAZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>被動收入月薪</t>
@@ -568,6 +561,13 @@
   <si>
     <t>中信保費</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alen40817a@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alen8256!</t>
   </si>
 </sst>
 </file>
@@ -6222,7 +6222,7 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6250,7 +6250,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -6488,7 +6488,7 @@
         <v>250000</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6509,23 +6509,23 @@
       </c>
       <c r="C12" s="13">
         <f>FV($B$11,1,,-SUM($A$11,C10))</f>
-        <v>4041048.0881999996</v>
+        <v>4209425.0918749999</v>
       </c>
       <c r="D12" s="13">
         <f>C12-C10-$A$11</f>
-        <v>673508.01469999971</v>
+        <v>841885.01837499999</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="3"/>
-        <v>141436.68308700001</v>
+        <v>147329.87821562501</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" si="0"/>
-        <v>11786.390257250001</v>
+        <v>12277.489851302083</v>
       </c>
       <c r="I12" s="13">
         <f>C12-C10</f>
-        <v>923508.01469999971</v>
+        <v>1091885.018375</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="12">
@@ -6541,23 +6541,23 @@
       </c>
       <c r="C13" s="1">
         <f>FV($B$11,1,,-SUM($A$11,C12))</f>
-        <v>5149257.705839999</v>
+        <v>5574281.3648437504</v>
       </c>
       <c r="D13" s="1">
         <f>C13-C12-$A$11</f>
-        <v>858209.61763999937</v>
+        <v>1114856.2729687504</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="3"/>
-        <v>180224.01970439998</v>
+        <v>195099.84776953128</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="0"/>
-        <v>15018.668308699998</v>
+        <v>16258.32064746094</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ref="I13:I70" si="7">C13-C12</f>
-        <v>1108209.6176399994</v>
+        <v>1364856.2729687504</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13">
@@ -6573,23 +6573,23 @@
       </c>
       <c r="C14" s="1">
         <f>FV($B$11,1,,-SUM($A$11,C13))</f>
-        <v>6479109.2470079986</v>
+        <v>7280351.7060546875</v>
       </c>
       <c r="D14" s="1">
         <f>C14-C13-$A$11</f>
-        <v>1079851.5411679996</v>
+        <v>1456070.3412109371</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="3"/>
-        <v>226768.82364527998</v>
+        <v>254812.30971191407</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>18897.401970439998</v>
+        <v>21234.359142659505</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="7"/>
-        <v>1329851.5411679996</v>
+        <v>1706070.3412109371</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14">
@@ -6605,23 +6605,23 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15:C70" si="8">FV($B$11,1,,-SUM($A$11,C14))</f>
-        <v>8074931.0964095984</v>
+        <v>9412939.6325683594</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ref="D15:D70" si="9">C15-C14-$A$11</f>
-        <v>1345821.8494015997</v>
+        <v>1882587.9265136719</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="3"/>
-        <v>282622.58837433596</v>
+        <v>329452.88713989261</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>23551.882364527995</v>
+        <v>27454.407261657718</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="7"/>
-        <v>1595821.8494015997</v>
+        <v>2132587.9265136719</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15">
@@ -6638,23 +6638,23 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="8"/>
-        <v>9989917.3156915177</v>
+        <v>12078674.540710449</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="9"/>
-        <v>1664986.2192819193</v>
+        <v>2415734.9081420898</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="3"/>
-        <v>349647.10604920314</v>
+        <v>422753.60892486578</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>29137.258837433594</v>
+        <v>35229.467410405479</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="7"/>
-        <v>1914986.2192819193</v>
+        <v>2665734.9081420898</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16">
@@ -6670,23 +6670,23 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="8"/>
-        <v>12287900.77882982</v>
+        <v>15410843.175888062</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="9"/>
-        <v>2047983.4631383028</v>
+        <v>3082168.6351776123</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="3"/>
-        <v>430076.52725904377</v>
+        <v>539379.51115608215</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>35839.710604920314</v>
+        <v>44948.292596340179</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="7"/>
-        <v>2297983.4631383028</v>
+        <v>3332168.6351776123</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17">
@@ -6702,23 +6702,23 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="8"/>
-        <v>15045480.934595784</v>
+        <v>19576053.969860077</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="9"/>
-        <v>2507580.1557659637</v>
+        <v>3915210.7939720154</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="3"/>
-        <v>526591.8327108525</v>
+        <v>685161.88894510281</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>43882.652725904372</v>
+        <v>57096.824078758567</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="7"/>
-        <v>2757580.1557659637</v>
+        <v>4165210.7939720154</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18">
@@ -6734,23 +6734,23 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="8"/>
-        <v>18354577.121514939</v>
+        <v>24782567.462325096</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="9"/>
-        <v>3059096.1869191546</v>
+        <v>4956513.4924650192</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="3"/>
-        <v>642410.1992530229</v>
+        <v>867389.86118137848</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v>53534.18327108524</v>
+        <v>72282.488431781545</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="7"/>
-        <v>3309096.1869191546</v>
+        <v>5206513.4924650192</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19">
@@ -6766,23 +6766,23 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="8"/>
-        <v>22325492.545817927</v>
+        <v>31290709.32790637</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="9"/>
-        <v>3720915.4243029878</v>
+        <v>6258141.865581274</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="3"/>
-        <v>781392.23910362751</v>
+        <v>1095174.826476723</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
-        <v>65116.019925302295</v>
+        <v>91264.568873060241</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="7"/>
-        <v>3970915.4243029878</v>
+        <v>6508141.865581274</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20">
@@ -6798,23 +6798,23 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="8"/>
-        <v>27090591.054981511</v>
+        <v>39425886.659882963</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="9"/>
-        <v>4515098.5091635846</v>
+        <v>7885177.3319765925</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="3"/>
-        <v>948170.68692435301</v>
+        <v>1379906.0330959039</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>79014.223910362751</v>
+        <v>114992.16942465866</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="7"/>
-        <v>4765098.5091635846</v>
+        <v>8135177.3319765925</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21">
@@ -6830,23 +6830,23 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="8"/>
-        <v>32808709.265977811</v>
+        <v>49594858.324853703</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="9"/>
-        <v>5468118.2109963</v>
+        <v>9918971.6649707407</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="3"/>
-        <v>1148304.8243092236</v>
+        <v>1735820.0413698799</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>95692.068692435292</v>
+        <v>144651.67011415664</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="7"/>
-        <v>5718118.2109963</v>
+        <v>10168971.664970741</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22">
@@ -6862,23 +6862,23 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="8"/>
-        <v>39670451.11917337</v>
+        <v>62306072.906067133</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="9"/>
-        <v>6611741.8531955592</v>
+        <v>12461214.58121343</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="3"/>
-        <v>1388465.789171068</v>
+        <v>2180712.55171235</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="0"/>
-        <v>115705.48243092233</v>
+        <v>181726.04597602916</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="7"/>
-        <v>6861741.8531955592</v>
+        <v>12711214.58121343</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23">
@@ -6894,23 +6894,23 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="8"/>
-        <v>47904541.343008041</v>
+        <v>78195091.132583916</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="9"/>
-        <v>7984090.2238346711</v>
+        <v>15639018.226516783</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="3"/>
-        <v>1676658.9470052817</v>
+        <v>2736828.1896404373</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="0"/>
-        <v>139721.57891710682</v>
+        <v>228069.01580336978</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="7"/>
-        <v>8234090.2238346711</v>
+        <v>15889018.226516783</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24">
@@ -6926,23 +6926,23 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="8"/>
-        <v>57785449.611609645</v>
+        <v>98056363.915729895</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="9"/>
-        <v>9630908.2686016038</v>
+        <v>19611272.783145979</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="3"/>
-        <v>2022490.7364063377</v>
+        <v>3431972.7370505468</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="0"/>
-        <v>168540.89470052815</v>
+        <v>285997.72808754555</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="7"/>
-        <v>9880908.2686016038</v>
+        <v>19861272.783145979</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25">
@@ -6958,23 +6958,23 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="8"/>
-        <v>69642539.533931568</v>
+        <v>122882954.89466237</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="9"/>
-        <v>11607089.922321923</v>
+        <v>24576590.97893247</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="3"/>
-        <v>2437488.8836876052</v>
+        <v>4300903.4213131834</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="0"/>
-        <v>203124.07364063375</v>
+        <v>358408.61844276526</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="7"/>
-        <v>11857089.922321923</v>
+        <v>24826590.97893247</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26">
@@ -6990,23 +6990,23 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="8"/>
-        <v>83871047.440717876</v>
+        <v>153916193.61832795</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="9"/>
-        <v>13978507.906786308</v>
+        <v>30783238.72366558</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="3"/>
-        <v>2935486.6604251261</v>
+        <v>5387066.7766414788</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="0"/>
-        <v>244623.8883687605</v>
+        <v>448922.23138678988</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="7"/>
-        <v>14228507.906786308</v>
+        <v>31033238.72366558</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27">
@@ -7022,23 +7022,23 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="8"/>
-        <v>100945256.92886145</v>
+        <v>192707742.02290994</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="9"/>
-        <v>16824209.488143578</v>
+        <v>38541548.404581994</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="3"/>
-        <v>3533083.9925101511</v>
+        <v>6744770.9708018489</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="0"/>
-        <v>294423.66604251257</v>
+        <v>562064.2475668207</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="7"/>
-        <v>17074209.488143578</v>
+        <v>38791548.404581994</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28">
@@ -7054,23 +7054,23 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="8"/>
-        <v>121434308.31463374</v>
+        <v>241197177.52863741</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="9"/>
-        <v>20239051.385772288</v>
+        <v>48239435.50572747</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="3"/>
-        <v>4250200.791012181</v>
+        <v>8441901.2135023102</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="0"/>
-        <v>354183.3992510151</v>
+        <v>703491.76779185922</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="7"/>
-        <v>20489051.385772288</v>
+        <v>48489435.50572747</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29">
@@ -7086,23 +7086,23 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="8"/>
-        <v>146021169.97756049</v>
+        <v>301808971.91079676</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="9"/>
-        <v>24336861.662926748</v>
+        <v>60361794.382159352</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="3"/>
-        <v>5110740.9492146177</v>
+        <v>10563314.016877888</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="0"/>
-        <v>425895.07910121814</v>
+        <v>880276.16807315731</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="7"/>
-        <v>24586861.662926748</v>
+        <v>60611794.382159352</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30">
@@ -7118,23 +7118,23 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="8"/>
-        <v>175525403.97307259</v>
+        <v>377573714.88849592</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="9"/>
-        <v>29254233.995512098</v>
+        <v>75514742.977699161</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="3"/>
-        <v>6143389.1390575413</v>
+        <v>13215080.021097358</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="0"/>
-        <v>511949.09492146177</v>
+        <v>1101256.6684247798</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="7"/>
-        <v>29504233.995512098</v>
+        <v>75764742.977699161</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31">
@@ -7150,23 +7150,23 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="8"/>
-        <v>210930484.76768711</v>
+        <v>472279643.6106199</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="9"/>
-        <v>35155080.794614524</v>
+        <v>94455928.722123981</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="3"/>
-        <v>7382566.9668690497</v>
+        <v>16529787.526371699</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="0"/>
-        <v>615213.9139057541</v>
+        <v>1377482.2938643082</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="7"/>
-        <v>35405080.794614524</v>
+        <v>94705928.722123981</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32">
@@ -7182,23 +7182,23 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="8"/>
-        <v>253416581.72122452</v>
+        <v>590662054.51327491</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="9"/>
-        <v>42236096.953537405</v>
+        <v>118132410.90265501</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="3"/>
-        <v>8869580.3602428585</v>
+        <v>20673171.907964624</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="0"/>
-        <v>739131.69668690488</v>
+        <v>1722764.3256637186</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="7"/>
-        <v>42486096.953537405</v>
+        <v>118382410.90265501</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33">
@@ -7214,23 +7214,23 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="8"/>
-        <v>304399898.06546938</v>
+        <v>738640068.14159369</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="9"/>
-        <v>50733316.344244868</v>
+        <v>147728013.62831879</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="3"/>
-        <v>10653996.432291429</v>
+        <v>25852402.384955782</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="0"/>
-        <v>887833.03602428583</v>
+        <v>2154366.8654129817</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="7"/>
-        <v>50983316.344244868</v>
+        <v>147978013.62831879</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34">
@@ -7246,23 +7246,23 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="8"/>
-        <v>365579877.67856324</v>
+        <v>923612585.17699218</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="9"/>
-        <v>60929979.613093853</v>
+        <v>184722517.03539848</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="3"/>
-        <v>12795295.718749715</v>
+        <v>32326440.481194731</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="0"/>
-        <v>1066274.643229143</v>
+        <v>2693870.0400995607</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="7"/>
-        <v>61179979.613093853</v>
+        <v>184972517.03539848</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35">
@@ -7278,23 +7278,23 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="8"/>
-        <v>438995853.2142759</v>
+        <v>1154828231.4712403</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="9"/>
-        <v>73165975.535712659</v>
+        <v>230965646.2942481</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="3"/>
-        <v>15364854.862499658</v>
+        <v>40418988.101493411</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="0"/>
-        <v>1280404.5718749715</v>
+        <v>3368249.0084577841</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="7"/>
-        <v>73415975.535712659</v>
+        <v>231215646.2942481</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36">
@@ -7310,23 +7310,23 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="8"/>
-        <v>527095023.85713106</v>
+        <v>1443847789.3390503</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="9"/>
-        <v>87849170.642855167</v>
+        <v>288769557.86781001</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="3"/>
-        <v>18448325.834999587</v>
+        <v>50534672.626866765</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
-        <v>1537360.4862499656</v>
+        <v>4211222.7189055635</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="7"/>
-        <v>88099170.642855167</v>
+        <v>289019557.86781001</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37">
@@ -7342,23 +7342,23 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="8"/>
-        <v>632814028.62855721</v>
+        <v>1805122236.6738129</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="9"/>
-        <v>105469004.77142614</v>
+        <v>361024447.33476257</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="3"/>
-        <v>22148491.001999505</v>
+        <v>63179278.283583455</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="0"/>
-        <v>1845707.5834999587</v>
+        <v>5264939.8569652876</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="7"/>
-        <v>105719004.77142614</v>
+        <v>361274447.33476257</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38">
@@ -7374,23 +7374,23 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="8"/>
-        <v>759676834.35426867</v>
+        <v>2256715295.8422661</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="9"/>
-        <v>126612805.72571146</v>
+        <v>451343059.16845322</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="3"/>
-        <v>26588689.202399407</v>
+        <v>78985035.354479328</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="0"/>
-        <v>2215724.1001999504</v>
+        <v>6582086.2795399437</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="7"/>
-        <v>126862805.72571146</v>
+        <v>451593059.16845322</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39">
@@ -7406,23 +7406,23 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="8"/>
-        <v>911912201.22512233</v>
+        <v>2821206619.8028326</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="9"/>
-        <v>151985366.87085366</v>
+        <v>564241323.96056652</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="3"/>
-        <v>31916927.042879283</v>
+        <v>98742231.693099156</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="0"/>
-        <v>2659743.9202399403</v>
+        <v>8228519.3077582633</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="7"/>
-        <v>152235366.87085366</v>
+        <v>564491323.96056652</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40">
@@ -7438,23 +7438,23 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="8"/>
-        <v>1094594641.4701467</v>
+        <v>3526820774.753541</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="9"/>
-        <v>182432440.24502432</v>
+        <v>705364154.95070839</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="3"/>
-        <v>38310812.451455139</v>
+        <v>123438727.11637394</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="0"/>
-        <v>3192567.7042879281</v>
+        <v>10286560.593031162</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="7"/>
-        <v>182682440.24502432</v>
+        <v>705614154.95070839</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41">
@@ -7470,23 +7470,23 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="8"/>
-        <v>1313813569.7641759</v>
+        <v>4408838468.441926</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="9"/>
-        <v>218968928.29402924</v>
+        <v>881767693.68838501</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="3"/>
-        <v>45983474.94174616</v>
+        <v>154309346.39546743</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="0"/>
-        <v>3831956.2451455132</v>
+        <v>12859112.199622286</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="7"/>
-        <v>219218928.29402924</v>
+        <v>882017693.68838501</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42">
@@ -7502,23 +7502,23 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="8"/>
-        <v>1576876283.717011</v>
+        <v>5511360585.5524073</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="9"/>
-        <v>262812713.95283508</v>
+        <v>1102272117.1104813</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="3"/>
-        <v>55190669.930095389</v>
+        <v>192897620.49433428</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="0"/>
-        <v>4599222.4941746155</v>
+        <v>16074801.707861191</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="7"/>
-        <v>263062713.95283508</v>
+        <v>1102522117.1104813</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43">
@@ -7534,23 +7534,23 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="8"/>
-        <v>1892551540.4604132</v>
+        <v>6889513231.9405088</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="9"/>
-        <v>315425256.74340224</v>
+        <v>1377902646.3881016</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="3"/>
-        <v>66239303.916114472</v>
+        <v>241132963.11791784</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="0"/>
-        <v>5519941.9930095393</v>
+        <v>20094413.593159821</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="7"/>
-        <v>315675256.74340224</v>
+        <v>1378152646.3881016</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44">
@@ -7566,23 +7566,23 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="8"/>
-        <v>2271361848.552496</v>
+        <v>8612204039.9256363</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="9"/>
-        <v>378560308.09208274</v>
+        <v>1722440807.9851274</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="3"/>
-        <v>79497664.699337363</v>
+        <v>301427141.39739728</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="0"/>
-        <v>6624805.3916114466</v>
+        <v>25118928.449783105</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="7"/>
-        <v>378810308.09208274</v>
+        <v>1722690807.9851274</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45">
@@ -7598,23 +7598,23 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="8"/>
-        <v>2725934218.2629952</v>
+        <v>10765567549.907045</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="9"/>
-        <v>454322369.71049929</v>
+        <v>2153113509.9814091</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="3"/>
-        <v>95407697.639204845</v>
+        <v>376794864.2467466</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="0"/>
-        <v>7950641.4699337371</v>
+        <v>31399572.020562217</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="7"/>
-        <v>454572369.71049929</v>
+        <v>2153363509.9814091</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46">
@@ -7630,23 +7630,23 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="8"/>
-        <v>3271421061.9155941</v>
+        <v>13457271937.383806</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="9"/>
-        <v>545236843.65259886</v>
+        <v>2691454387.4767609</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="3"/>
-        <v>114499737.1670458</v>
+        <v>471004517.80843323</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="0"/>
-        <v>9541644.7639204841</v>
+        <v>39250376.484036103</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="7"/>
-        <v>545486843.65259886</v>
+        <v>2691704387.4767609</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47">
@@ -7662,23 +7662,23 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="8"/>
-        <v>3926005274.2987127</v>
+        <v>16821902421.729757</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="9"/>
-        <v>654334212.38311863</v>
+        <v>3364380484.3459511</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="3"/>
-        <v>137410184.60045496</v>
+        <v>588766584.76054156</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="0"/>
-        <v>11450848.716704579</v>
+        <v>49063882.063378461</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="7"/>
-        <v>654584212.38311863</v>
+        <v>3364630484.3459511</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48">
@@ -7694,23 +7694,23 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="8"/>
-        <v>4711506329.1584549</v>
+        <v>21027690527.162197</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="9"/>
-        <v>785251054.85974216</v>
+        <v>4205538105.4324398</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="3"/>
-        <v>164902721.52054593</v>
+        <v>735969168.45067692</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="0"/>
-        <v>13741893.460045494</v>
+        <v>61330764.03755641</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="7"/>
-        <v>785501054.85974216</v>
+        <v>4205788105.4324398</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49">
@@ -7726,23 +7726,23 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="8"/>
-        <v>5654107594.9901457</v>
+        <v>26284925658.952747</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="9"/>
-        <v>942351265.83169079</v>
+        <v>5256985131.7905502</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="3"/>
-        <v>197893765.82465512</v>
+        <v>919972398.06334627</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="0"/>
-        <v>16491147.152054593</v>
+        <v>76664366.505278856</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="7"/>
-        <v>942601265.83169079</v>
+        <v>5257235131.7905502</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50">
@@ -7758,23 +7758,23 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="8"/>
-        <v>6785229113.9881744</v>
+        <v>32856469573.690933</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="9"/>
-        <v>1130871518.9980288</v>
+        <v>6571293914.7381859</v>
       </c>
       <c r="F51" s="6">
         <f t="shared" si="3"/>
-        <v>237483018.98958611</v>
+        <v>1149976435.0791829</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="0"/>
-        <v>19790251.582465511</v>
+        <v>95831369.589931905</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="7"/>
-        <v>1131121518.9980288</v>
+        <v>6571543914.7381859</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51">
@@ -7790,23 +7790,23 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="8"/>
-        <v>8142574936.7858086</v>
+        <v>41070899467.113663</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="9"/>
-        <v>1357095822.7976341</v>
+        <v>8214179893.4227295</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" si="3"/>
-        <v>284990122.7875033</v>
+        <v>1437481481.3489783</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="0"/>
-        <v>23749176.898958609</v>
+        <v>119790123.4457482</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="7"/>
-        <v>1357345822.7976341</v>
+        <v>8214429893.4227295</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52">
@@ -7822,23 +7822,23 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="8"/>
-        <v>9771389924.1429691</v>
+        <v>51338936833.892075</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="9"/>
-        <v>1628564987.3571606</v>
+        <v>10267787366.778412</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="3"/>
-        <v>341998647.34500396</v>
+        <v>1796862789.1862228</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="0"/>
-        <v>28499887.27875033</v>
+        <v>149738565.76551858</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="7"/>
-        <v>1628814987.3571606</v>
+        <v>10268037366.778412</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53">
@@ -7854,23 +7854,23 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="8"/>
-        <v>11725967908.971563</v>
+        <v>64173983542.365097</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="9"/>
-        <v>1954327984.8285942</v>
+        <v>12834796708.473022</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="3"/>
-        <v>410408876.81400478</v>
+        <v>2246089423.9827785</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="0"/>
-        <v>34200739.734500401</v>
+        <v>187174118.66523156</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="7"/>
-        <v>1954577984.8285942</v>
+        <v>12835046708.473022</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54">
@@ -7886,23 +7886,23 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="8"/>
-        <v>14071461490.765875</v>
+        <v>80217791927.956375</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="9"/>
-        <v>2345243581.7943115</v>
+        <v>16043558385.591278</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" si="3"/>
-        <v>492501152.17680568</v>
+        <v>2807622717.4784732</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="0"/>
-        <v>41041762.68140047</v>
+        <v>233968559.78987277</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="7"/>
-        <v>2345493581.7943115</v>
+        <v>16043808385.591278</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55">
@@ -7918,23 +7918,23 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="8"/>
-        <v>16886053788.919048</v>
+        <v>100272552409.94547</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="9"/>
-        <v>2814342298.1531734</v>
+        <v>20054510481.98909</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" si="3"/>
-        <v>591011882.61216676</v>
+        <v>3509539334.3480916</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="0"/>
-        <v>49250990.217680566</v>
+        <v>292461611.1956743</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="7"/>
-        <v>2814592298.1531734</v>
+        <v>20054760481.98909</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56">
@@ -7950,23 +7950,23 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="8"/>
-        <v>20263564546.702858</v>
+        <v>125341003012.43182</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="9"/>
-        <v>3377260757.7838097</v>
+        <v>25068200602.486359</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" si="3"/>
-        <v>709224759.13460004</v>
+        <v>4386935105.4351139</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="0"/>
-        <v>59102063.26121667</v>
+        <v>365577925.45292616</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="7"/>
-        <v>3377510757.7838097</v>
+        <v>25068450602.486359</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57">
@@ -7982,23 +7982,23 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="8"/>
-        <v>24316577456.04343</v>
+        <v>156676566265.53979</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="9"/>
-        <v>4052762909.3405724</v>
+        <v>31335313253.107971</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" si="3"/>
-        <v>851080210.9615202</v>
+        <v>5483679819.2938938</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="0"/>
-        <v>70923350.913460016</v>
+        <v>456973318.27449113</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="7"/>
-        <v>4053012909.3405724</v>
+        <v>31335563253.107971</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58">
@@ -8014,23 +8014,23 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="8"/>
-        <v>29180192947.252117</v>
+        <v>195846020331.92474</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="9"/>
-        <v>4863365491.2086868</v>
+        <v>39169204066.384949</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="3"/>
-        <v>1021306753.1538242</v>
+        <v>6854610711.6173668</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="0"/>
-        <v>85108896.096152022</v>
+        <v>571217559.30144727</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="7"/>
-        <v>4863615491.2086868</v>
+        <v>39169454066.384949</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59">
@@ -8046,23 +8046,23 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="8"/>
-        <v>35016531536.702538</v>
+        <v>244807837914.90594</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="9"/>
-        <v>5836088589.4504204</v>
+        <v>48961567582.981201</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" si="3"/>
-        <v>1225578603.7845888</v>
+        <v>8568274327.0217085</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="0"/>
-        <v>102131550.31538241</v>
+        <v>714022860.58514237</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="7"/>
-        <v>5836338589.4504204</v>
+        <v>48961817582.981201</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60">
@@ -8078,23 +8078,23 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="8"/>
-        <v>42020137844.043045</v>
+        <v>306010109893.63245</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="9"/>
-        <v>7003356307.3405075</v>
+        <v>61202021978.726501</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" si="3"/>
-        <v>1470704824.5415068</v>
+        <v>10710353846.277136</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="0"/>
-        <v>122558735.3784589</v>
+        <v>892529487.18976128</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="7"/>
-        <v>7003606307.3405075</v>
+        <v>61202271978.726501</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61">
@@ -8110,23 +8110,23 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="8"/>
-        <v>50424465412.851654</v>
+        <v>382512949867.04053</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="9"/>
-        <v>8404077568.808609</v>
+        <v>76502589973.408081</v>
       </c>
       <c r="F62" s="6">
         <f t="shared" si="3"/>
-        <v>1764856289.4498081</v>
+        <v>13387953245.34642</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="0"/>
-        <v>147071357.45415068</v>
+        <v>1115662770.4455349</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="7"/>
-        <v>8404327568.808609</v>
+        <v>76502839973.408081</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62">
@@ -8142,23 +8142,23 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="8"/>
-        <v>60509658495.421982</v>
+        <v>478141499833.80066</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="9"/>
-        <v>10084943082.570328</v>
+        <v>95628299966.760132</v>
       </c>
       <c r="F63" s="6">
         <f t="shared" si="3"/>
-        <v>2117838047.3397696</v>
+        <v>16734952494.183025</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="0"/>
-        <v>176486503.9449808</v>
+        <v>1394579374.5152521</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="7"/>
-        <v>10085193082.570328</v>
+        <v>95628549966.760132</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63">
@@ -8174,23 +8174,23 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="8"/>
-        <v>72611890194.506378</v>
+        <v>597677187292.25085</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="9"/>
-        <v>12101981699.084396</v>
+        <v>119535437458.4502</v>
       </c>
       <c r="F64" s="6">
         <f t="shared" si="3"/>
-        <v>2541416156.8077235</v>
+        <v>20918701555.228783</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="0"/>
-        <v>211784679.73397696</v>
+        <v>1743225129.6023986</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="7"/>
-        <v>12102231699.084396</v>
+        <v>119535687458.4502</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64">
@@ -8206,23 +8206,23 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" si="8"/>
-        <v>87134568233.407654</v>
+        <v>747096796615.3136</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="9"/>
-        <v>14522428038.901276</v>
+        <v>149419359323.06274</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" si="3"/>
-        <v>3049709888.1692681</v>
+        <v>26148387881.53598</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="0"/>
-        <v>254142490.68077233</v>
+        <v>2179032323.4613318</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" si="7"/>
-        <v>14522678038.901276</v>
+        <v>149419609323.06274</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65">
@@ -8238,23 +8238,23 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" si="8"/>
-        <v>104561781880.08919</v>
+        <v>933871308269.14197</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="9"/>
-        <v>17426963646.681534</v>
+        <v>186774261653.82837</v>
       </c>
       <c r="F66" s="6">
         <f t="shared" si="3"/>
-        <v>3659662365.803122</v>
+        <v>32685495789.419971</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="0"/>
-        <v>304971863.81692684</v>
+        <v>2723791315.7849975</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="7"/>
-        <v>17427213646.681534</v>
+        <v>186774511653.82837</v>
       </c>
       <c r="K66">
         <v>2077</v>
@@ -8269,23 +8269,23 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" si="8"/>
-        <v>125474438256.10703</v>
+        <v>1167339447836.4275</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="9"/>
-        <v>20912406376.017838</v>
+        <v>233467889567.28552</v>
       </c>
       <c r="F67" s="6">
         <f t="shared" si="3"/>
-        <v>4391605338.9637461</v>
+        <v>40856880674.274963</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" si="0"/>
-        <v>365967111.58031219</v>
+        <v>3404740056.1895804</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" si="7"/>
-        <v>20912656376.017838</v>
+        <v>233468139567.28552</v>
       </c>
       <c r="K67">
         <v>2078</v>
@@ -8300,23 +8300,23 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" si="8"/>
-        <v>150569625907.32843</v>
+        <v>1459174622295.5344</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="9"/>
-        <v>25094937651.221405</v>
+        <v>291834924459.10693</v>
       </c>
       <c r="F68" s="6">
         <f t="shared" si="3"/>
-        <v>5269936906.7564955</v>
+        <v>51071111780.343712</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="0"/>
-        <v>439161408.89637464</v>
+        <v>4255925981.6953092</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="7"/>
-        <v>25095187651.221405</v>
+        <v>291835174459.10693</v>
       </c>
       <c r="K68">
         <v>2079</v>
@@ -8331,23 +8331,23 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="8"/>
-        <v>180683851088.7941</v>
+        <v>1823968590369.418</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="9"/>
-        <v>30113975181.465668</v>
+        <v>364793718073.88354</v>
       </c>
       <c r="F69" s="6">
         <f t="shared" si="3"/>
-        <v>6323934788.1077938</v>
+        <v>63838900662.929634</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" ref="G69:G70" si="10">F69/12</f>
-        <v>526994565.67564946</v>
+        <v>5319908388.5774698</v>
       </c>
       <c r="I69" s="1">
         <f t="shared" si="7"/>
-        <v>30114225181.465668</v>
+        <v>364793968073.88354</v>
       </c>
       <c r="K69">
         <v>2080</v>
@@ -8362,23 +8362,23 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" si="8"/>
-        <v>216820921306.55292</v>
+        <v>2279961050461.7725</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="9"/>
-        <v>36136820217.75882</v>
+        <v>455992210092.35449</v>
       </c>
       <c r="F70" s="6">
         <f t="shared" ref="F70" si="11">C70*$F$1</f>
-        <v>7588732245.729353</v>
+        <v>79798636766.162048</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="10"/>
-        <v>632394353.81077945</v>
+        <v>6649886397.180171</v>
       </c>
       <c r="I70" s="1">
         <f t="shared" si="7"/>
-        <v>36137070217.75882</v>
+        <v>455992460092.35449</v>
       </c>
       <c r="K70">
         <v>2081</v>
@@ -8951,14 +8951,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9048,7 +9048,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -9062,18 +9062,18 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -9119,22 +9119,22 @@
       <c r="A31" t="s">
         <v>114</v>
       </c>
-      <c r="B31" t="s">
-        <v>115</v>
+      <c r="B31" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
         <v>116</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>117</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9147,30 +9147,31 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
         <v>119</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
         <v>122</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{46B72338-4E67-4475-8F83-D3A3FB223E0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -13983,8 +13984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14207,7 +14208,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -14229,7 +14230,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -15024,10 +15025,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -15104,7 +15105,7 @@
         <v>3495907</v>
       </c>
       <c r="E3" s="3">
-        <v>168</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15112,9 +15113,14 @@
         <v>45</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <f>SUM(F4:Q4)</f>
+        <v>18254</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>18254</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -15133,10 +15139,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <f>SUM(F5:Q5)</f>
-        <v>110076</v>
+        <v>105076</v>
       </c>
       <c r="F5" s="3">
-        <v>110076</v>
+        <v>105076</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -15169,7 +15175,7 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -15189,7 +15195,7 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -15212,13 +15218,15 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <f>SUM(F9:R9)</f>
-        <v>-13682</v>
+        <v>-27364</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
         <v>-13682</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>-13682</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -15232,7 +15240,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -15263,65 +15271,140 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15606</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12" si="0">-D12</f>
+        <v>-15606</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="3">
+        <v>490</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-15606</v>
+      </c>
+      <c r="E13" s="3">
+        <f>$C13+ABS($D13)</f>
+        <v>16096</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3">
-        <f>SUM(C3:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <f>SUM(D3:D13)</f>
+      <c r="C18" s="3">
+        <f>SUM(C3:C16)</f>
+        <v>490</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(D3:D17)</f>
         <v>3495907</v>
       </c>
-      <c r="E14" s="3">
-        <f>SUM(E3:E13)</f>
-        <v>30358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E18" s="3">
+        <f>SUM(E3:E17)</f>
+        <v>31426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7">
-        <f>D14/E17</f>
-        <v>0.99139089092850363</v>
-      </c>
-      <c r="E15" s="7">
-        <f>E14/E17</f>
-        <v>8.6091090714963282E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="7">
+        <f>D18/E21</f>
+        <v>0.99109071924879222</v>
+      </c>
+      <c r="E19" s="7">
+        <f>E18/E21</f>
+        <v>8.9092807512077821E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="7">
-        <f>C14/(E17-C14)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C20" s="7">
+        <f>C18/(E21-C18)</f>
+        <v>1.3893445214317734E-4</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="E17" s="3">
-        <f>SUM(D14:E14)</f>
-        <v>3526265</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="E21" s="3">
+        <f>SUM(D18:E18)</f>
+        <v>3527333</v>
       </c>
     </row>
   </sheetData>

--- a/投資報酬計算表.xlsx
+++ b/投資報酬計算表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D5A16-75E6-4960-8EE5-22379F6C5731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977DCC3A-7419-46C4-9656-E31016990CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="624" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="136">
   <si>
     <t>被動收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6222,7 +6222,7 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9955,7 +9955,7 @@
   <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I36" sqref="I36"/>
       <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
@@ -12104,7 +12104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
@@ -13984,7 +13984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -15025,10 +15025,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -15037,7 +15037,9 @@
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -15115,13 +15117,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <f>SUM(F4:Q4)</f>
-        <v>18254</v>
+        <v>12383</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
-        <v>18254</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>11277</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1106</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -15139,12 +15143,14 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <f>SUM(F5:Q5)</f>
-        <v>105076</v>
+        <v>195076</v>
       </c>
       <c r="F5" s="3">
         <v>105076</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>90000</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -15218,7 +15224,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <f>SUM(F9:R9)</f>
-        <v>-27364</v>
+        <v>-41046</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
@@ -15227,7 +15233,9 @@
       <c r="H9" s="3">
         <v>-13682</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>-13682</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -15281,7 +15289,7 @@
         <v>15606</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" ref="E12" si="0">-D12</f>
+        <f t="shared" ref="E12:E15" si="0">-D12</f>
         <v>-15606</v>
       </c>
       <c r="F12" s="3"/>
@@ -15320,9 +15328,19 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="3">
+        <v>16823</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>-16823</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -15333,9 +15351,19 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="3">
+        <v>66294</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>-66294</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -15346,65 +15374,104 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3">
-        <f>SUM(C3:C16)</f>
+      <c r="C21" s="3">
+        <f>SUM(C3:C19)</f>
         <v>490</v>
       </c>
-      <c r="D18" s="3">
-        <f>SUM(D3:D17)</f>
-        <v>3495907</v>
-      </c>
-      <c r="E18" s="3">
-        <f>SUM(E3:E17)</f>
-        <v>31426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D21" s="3">
+        <f>SUM(D3:D20)</f>
+        <v>3579024</v>
+      </c>
+      <c r="E21" s="3">
+        <f>SUM(E3:E20)</f>
+        <v>18756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7">
-        <f>D18/E21</f>
-        <v>0.99109071924879222</v>
-      </c>
-      <c r="E19" s="7">
-        <f>E18/E21</f>
-        <v>8.9092807512077821E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="7">
+        <f>D21/E24</f>
+        <v>0.99478678518419694</v>
+      </c>
+      <c r="E22" s="7">
+        <f>E21/E24</f>
+        <v>5.2132148158030786E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="7">
-        <f>C18/(E21-C18)</f>
-        <v>1.3893445214317734E-4</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="C23" s="7">
+        <f>C21/(E24-C21)</f>
+        <v>1.3621364971965006E-4</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="E21" s="3">
-        <f>SUM(D18:E18)</f>
-        <v>3527333</v>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="E24" s="3">
+        <f>SUM(D21:E21)</f>
+        <v>3597780</v>
       </c>
     </row>
   </sheetData>

--- a/投資報酬計算表.xlsx
+++ b/投資報酬計算表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977DCC3A-7419-46C4-9656-E31016990CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C356AC22-A6BE-42D9-BBBB-10252C9B9495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="624" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="138">
   <si>
     <t>被動收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,6 +568,14 @@
   </si>
   <si>
     <t>Alen8256!</t>
+  </si>
+  <si>
+    <t>德州撲克線上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德州撲克現場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6221,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6856,7 +6864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -9955,7 +9963,7 @@
   <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I36" sqref="I36"/>
       <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
@@ -12104,7 +12112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
@@ -13984,8 +13992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -15025,16 +15033,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
@@ -15117,14 +15125,14 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <f>SUM(F4:Q4)</f>
-        <v>12383</v>
+        <v>11378</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
         <v>11277</v>
       </c>
       <c r="H4" s="3">
-        <v>1106</v>
+        <v>101</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -15143,13 +15151,13 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <f>SUM(F5:Q5)</f>
-        <v>195076</v>
+        <v>190076</v>
       </c>
       <c r="F5" s="3">
         <v>105076</v>
       </c>
       <c r="H5" s="3">
-        <v>90000</v>
+        <v>85000</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -15224,7 +15232,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <f>SUM(F9:R9)</f>
-        <v>-41046</v>
+        <v>-46046</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
@@ -15234,7 +15242,7 @@
         <v>-13682</v>
       </c>
       <c r="I9" s="3">
-        <v>-13682</v>
+        <v>-18682</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -15266,60 +15274,52 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <f>SUM(F11:R11)</f>
+        <v>-1625</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>-1625</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>45337</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="3">
-        <v>15606</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <f t="shared" ref="E12:E15" si="0">-D12</f>
-        <v>-15606</v>
+        <f>SUM(F12:R12)</f>
+        <v>-4000</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>-4000</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>45338</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="3">
-        <v>490</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-15606</v>
-      </c>
-      <c r="E13" s="3">
-        <f>$C13+ABS($D13)</f>
-        <v>16096</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -15329,17 +15329,17 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45363</v>
+        <v>45337</v>
       </c>
       <c r="B14" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="3">
-        <v>16823</v>
+        <v>15606</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>-16823</v>
+        <f t="shared" ref="E14:E17" si="0">-D14</f>
+        <v>-15606</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -15352,17 +15352,20 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45369</v>
+        <v>45338</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
       </c>
+      <c r="C15" s="3">
+        <v>490</v>
+      </c>
       <c r="D15" s="3">
-        <v>66294</v>
+        <v>-15606</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>-66294</v>
+        <f>$C15+ABS($D15)</f>
+        <v>16096</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -15374,9 +15377,19 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16823</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>-16823</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -15387,9 +15400,19 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="3">
+        <v>66294</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>-66294</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -15400,9 +15423,22 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-4236</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-83385</v>
+      </c>
+      <c r="E18" s="3">
+        <f>$C18+ABS($D18)</f>
+        <v>79149</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -15413,65 +15449,91 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3">
-        <f>SUM(C3:C19)</f>
-        <v>490</v>
-      </c>
-      <c r="D21" s="3">
-        <f>SUM(D3:D20)</f>
-        <v>3579024</v>
-      </c>
-      <c r="E21" s="3">
-        <f>SUM(E3:E20)</f>
-        <v>18756</v>
-      </c>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7">
-        <f>D21/E24</f>
-        <v>0.99478678518419694</v>
-      </c>
-      <c r="E22" s="7">
-        <f>E21/E24</f>
-        <v>5.2132148158030786E-3</v>
-      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3">
+        <f>SUM(C3:C21)</f>
+        <v>-3746</v>
+      </c>
+      <c r="D23" s="3">
+        <f>SUM(D3:D22)</f>
+        <v>3495639</v>
+      </c>
+      <c r="E23" s="3">
+        <f>SUM(E3:E22)</f>
+        <v>81275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7">
+        <f>D23/E26</f>
+        <v>0.97727789932886278</v>
+      </c>
+      <c r="E24" s="7">
+        <f>E23/E26</f>
+        <v>2.2722100671137186E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="7">
-        <f>C21/(E24-C21)</f>
-        <v>1.3621364971965006E-4</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="C25" s="7">
+        <f>C23/(E26-C23)</f>
+        <v>-1.0461758446766796E-3</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-      <c r="E24" s="3">
-        <f>SUM(D21:E21)</f>
-        <v>3597780</v>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="E26" s="3">
+        <f>SUM(D23:E23)</f>
+        <v>3576914</v>
       </c>
     </row>
   </sheetData>

--- a/投資報酬計算表.xlsx
+++ b/投資報酬計算表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C356AC22-A6BE-42D9-BBBB-10252C9B9495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA12C8BE-8FB0-4921-B3DC-EDD7005CB188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="624" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="624" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="投資報酬率" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="141">
   <si>
     <t>被動收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,18 @@
     <t>德州撲克現場</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>大阪機票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母親節紅包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿公結婚基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -587,7 +599,7 @@
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -618,6 +630,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -663,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +723,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6229,11 +6251,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="46.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
@@ -6244,7 +6266,7 @@
     <col min="14" max="14" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6264,7 +6286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>200000</v>
       </c>
@@ -6275,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="4" customFormat="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -6304,7 +6326,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="4" customFormat="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -6333,7 +6355,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="4" customFormat="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -6362,7 +6384,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="4" customFormat="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -6391,7 +6413,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>400000</v>
       </c>
@@ -6407,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="4" customFormat="1">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -6439,7 +6461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>250000</v>
       </c>
@@ -6459,7 +6481,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -6491,7 +6513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>250000</v>
       </c>
@@ -6511,7 +6533,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="12">
         <v>7</v>
       </c>
@@ -6543,7 +6565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="17.25" customHeight="1">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6575,7 +6597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6607,7 +6629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="17.25" customHeight="1">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6640,7 +6662,7 @@
       </c>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>11</v>
       </c>
@@ -6672,7 +6694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="20.25" customHeight="1">
       <c r="A17">
         <v>12</v>
       </c>
@@ -6704,7 +6726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>13</v>
       </c>
@@ -6736,7 +6758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>14</v>
       </c>
@@ -6768,7 +6790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1">
       <c r="A20">
         <v>15</v>
       </c>
@@ -6800,7 +6822,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18" customHeight="1">
       <c r="A21">
         <v>16</v>
       </c>
@@ -6832,7 +6854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16.5" customHeight="1">
       <c r="A22">
         <v>17</v>
       </c>
@@ -6864,7 +6886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>18</v>
       </c>
@@ -6896,7 +6918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="17.25" customHeight="1">
       <c r="A24">
         <v>19</v>
       </c>
@@ -6928,7 +6950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>20</v>
       </c>
@@ -6960,7 +6982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19.5" customHeight="1">
       <c r="A26">
         <v>21</v>
       </c>
@@ -6992,7 +7014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>22</v>
       </c>
@@ -7024,7 +7046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>23</v>
       </c>
@@ -7056,7 +7078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>24</v>
       </c>
@@ -7088,7 +7110,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>25</v>
       </c>
@@ -7120,7 +7142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="17.25" customHeight="1">
       <c r="A31">
         <v>26</v>
       </c>
@@ -7152,7 +7174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="19.5" customHeight="1">
       <c r="A32">
         <v>27</v>
       </c>
@@ -7184,7 +7206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>28</v>
       </c>
@@ -7216,7 +7238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>29</v>
       </c>
@@ -7248,7 +7270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>30</v>
       </c>
@@ -7280,7 +7302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>31</v>
       </c>
@@ -7312,7 +7334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>32</v>
       </c>
@@ -7344,7 +7366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>33</v>
       </c>
@@ -7376,7 +7398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>34</v>
       </c>
@@ -7408,7 +7430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>35</v>
       </c>
@@ -7440,7 +7462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>36</v>
       </c>
@@ -7472,7 +7494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>37</v>
       </c>
@@ -7504,7 +7526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>38</v>
       </c>
@@ -7536,7 +7558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>39</v>
       </c>
@@ -7568,7 +7590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>40</v>
       </c>
@@ -7600,7 +7622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>41</v>
       </c>
@@ -7632,7 +7654,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>42</v>
       </c>
@@ -7664,7 +7686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>43</v>
       </c>
@@ -7696,7 +7718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>44</v>
       </c>
@@ -7728,7 +7750,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>45</v>
       </c>
@@ -7760,7 +7782,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>46</v>
       </c>
@@ -7792,7 +7814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>47</v>
       </c>
@@ -7824,7 +7846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>48</v>
       </c>
@@ -7856,7 +7878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>49</v>
       </c>
@@ -7888,7 +7910,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>50</v>
       </c>
@@ -7920,7 +7942,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>51</v>
       </c>
@@ -7952,7 +7974,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>52</v>
       </c>
@@ -7984,7 +8006,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>53</v>
       </c>
@@ -8016,7 +8038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>54</v>
       </c>
@@ -8048,7 +8070,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>55</v>
       </c>
@@ -8080,7 +8102,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>56</v>
       </c>
@@ -8112,7 +8134,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>57</v>
       </c>
@@ -8144,7 +8166,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>58</v>
       </c>
@@ -8176,7 +8198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>59</v>
       </c>
@@ -8208,7 +8230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>60</v>
       </c>
@@ -8240,7 +8262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>61</v>
       </c>
@@ -8271,7 +8293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>62</v>
       </c>
@@ -8302,7 +8324,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>63</v>
       </c>
@@ -8333,7 +8355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>64</v>
       </c>
@@ -8364,7 +8386,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>65</v>
       </c>
@@ -8410,7 +8432,7 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
@@ -8419,7 +8441,7 @@
     <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
@@ -8430,7 +8452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -8439,7 +8461,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>44312</v>
       </c>
@@ -8460,7 +8482,7 @@
         <v>-9500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>44312</v>
       </c>
@@ -8481,7 +8503,7 @@
         <v>-9250</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>44312</v>
       </c>
@@ -8502,7 +8524,7 @@
         <v>-9000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>44312</v>
       </c>
@@ -8523,7 +8545,7 @@
         <v>-8500</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1">
       <c r="A8" s="2">
         <v>44312</v>
       </c>
@@ -8544,7 +8566,7 @@
         <v>-8250</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1">
       <c r="A9" s="2">
         <v>44320</v>
       </c>
@@ -8566,7 +8588,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1">
       <c r="A10" s="2">
         <v>44321</v>
       </c>
@@ -8581,7 +8603,7 @@
         <v>-699245</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
       <c r="A11" s="2">
         <v>44322</v>
       </c>
@@ -8596,7 +8618,7 @@
         <v>-234834</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>44369</v>
       </c>
@@ -8613,7 +8635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>44393</v>
       </c>
@@ -8631,7 +8653,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>44397</v>
       </c>
@@ -8652,7 +8674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>44397</v>
       </c>
@@ -8671,12 +8693,12 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -8684,7 +8706,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -8701,7 +8723,7 @@
         <v>1040756</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -8715,7 +8737,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -8727,223 +8749,223 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="E21" s="3">
         <f>SUM(D18:E18)</f>
         <v>1040756</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="2"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -8963,14 +8985,14 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -8978,7 +9000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8986,7 +9008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -8994,7 +9016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -9005,7 +9027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -9016,7 +9038,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="19.5">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -9027,7 +9049,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -9035,7 +9057,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>103</v>
       </c>
@@ -9043,7 +9065,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -9054,7 +9076,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -9065,7 +9087,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -9076,7 +9098,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -9084,12 +9106,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -9097,7 +9119,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -9105,17 +9127,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -9123,7 +9145,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -9134,7 +9156,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -9145,7 +9167,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="B33" t="s">
         <v>86</v>
       </c>
@@ -9153,7 +9175,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -9164,7 +9186,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="B35" t="s">
         <v>121</v>
       </c>
@@ -9191,7 +9213,7 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -9203,7 +9225,7 @@
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9217,12 +9239,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>43004</v>
       </c>
@@ -9233,7 +9255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>43008</v>
       </c>
@@ -9244,7 +9266,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>43068</v>
       </c>
@@ -9255,7 +9277,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>43068</v>
       </c>
@@ -9266,7 +9288,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>43073</v>
       </c>
@@ -9277,7 +9299,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>43082</v>
       </c>
@@ -9288,7 +9310,7 @@
         <v>19041</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>43112</v>
       </c>
@@ -9299,7 +9321,7 @@
         <v>45942</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -9307,7 +9329,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -9316,7 +9338,7 @@
         <v>70869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9325,7 +9347,7 @@
         <v>310869</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -9334,7 +9356,7 @@
         <v>0.29528749999999998</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7">
       <c r="G34" t="s">
         <v>28</v>
       </c>
@@ -9355,14 +9377,14 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9376,12 +9398,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>43182</v>
       </c>
@@ -9395,7 +9417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>43187</v>
       </c>
@@ -9409,7 +9431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>43192</v>
       </c>
@@ -9423,7 +9445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>43193</v>
       </c>
@@ -9437,7 +9459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>43193</v>
       </c>
@@ -9449,7 +9471,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>43200</v>
       </c>
@@ -9463,7 +9485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -9477,7 +9499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -9491,7 +9513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -9505,7 +9527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -9519,7 +9541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>43224</v>
       </c>
@@ -9530,7 +9552,7 @@
         <v>11267</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>43378</v>
       </c>
@@ -9541,7 +9563,7 @@
         <v>29515</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -9551,7 +9573,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -9560,7 +9582,7 @@
         <v>-57627</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9569,7 +9591,7 @@
         <v>422373</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -9593,7 +9615,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
@@ -9601,7 +9623,7 @@
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9618,12 +9640,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43642</v>
       </c>
@@ -9634,7 +9656,7 @@
         <v>-19470</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43697</v>
       </c>
@@ -9645,7 +9667,7 @@
         <v>-1011</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43736</v>
       </c>
@@ -9656,7 +9678,7 @@
         <v>133266</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -9667,7 +9689,7 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -9676,7 +9698,7 @@
         <v>112785</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9685,7 +9707,7 @@
         <v>832785</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -9709,7 +9731,7 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -9717,7 +9739,7 @@
     <col min="4" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -9742,7 +9764,7 @@
         <v>1017594</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43860</v>
       </c>
@@ -9754,7 +9776,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43878</v>
       </c>
@@ -9766,7 +9788,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>44099</v>
       </c>
@@ -9778,7 +9800,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>44120</v>
       </c>
@@ -9790,7 +9812,7 @@
         <v>11020</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>44165</v>
       </c>
@@ -9808,7 +9830,7 @@
         <v>78851</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>44166</v>
       </c>
@@ -9826,7 +9848,7 @@
         <v>225898</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>44167</v>
       </c>
@@ -9844,7 +9866,7 @@
         <v>349749</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>44168</v>
       </c>
@@ -9862,47 +9884,47 @@
         <v>561502</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="26.25" customHeight="1">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -9910,7 +9932,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -9927,13 +9949,13 @@
         <v>1216000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -9945,7 +9967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="E24" s="3">
         <f>SUM(D21:E21)</f>
         <v>1216000</v>
@@ -9968,7 +9990,7 @@
       <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
@@ -9984,7 +10006,7 @@
     <col min="15" max="17" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -10001,7 +10023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="F2" t="s">
         <v>52</v>
       </c>
@@ -10039,7 +10061,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -10048,7 +10070,7 @@
         <v>1216000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -10057,7 +10079,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -10098,7 +10120,7 @@
         <v>10875</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>46</v>
@@ -10126,7 +10148,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>77</v>
@@ -10148,7 +10170,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>44201</v>
       </c>
@@ -10163,7 +10185,7 @@
         <v>-167237</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>44204</v>
       </c>
@@ -10178,7 +10200,7 @@
         <v>-122673</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>44209</v>
       </c>
@@ -10193,7 +10215,7 @@
         <v>-846204</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>44210</v>
       </c>
@@ -10212,7 +10234,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>44210</v>
       </c>
@@ -10230,7 +10252,7 @@
         <v>513717</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>44211</v>
       </c>
@@ -10255,7 +10277,7 @@
         <v>345285</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>44214</v>
       </c>
@@ -10280,7 +10302,7 @@
         <v>180269</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>44216</v>
       </c>
@@ -10305,7 +10327,7 @@
         <v>61042</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>44217</v>
       </c>
@@ -10327,7 +10349,7 @@
         <v>48415</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>44218</v>
       </c>
@@ -10349,7 +10371,7 @@
         <v>12424</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>44219</v>
       </c>
@@ -10371,7 +10393,7 @@
         <v>7455</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>44222</v>
       </c>
@@ -10396,7 +10418,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>44223</v>
       </c>
@@ -10418,7 +10440,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>44224</v>
       </c>
@@ -10443,7 +10465,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>44225</v>
       </c>
@@ -10464,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>44225</v>
       </c>
@@ -10487,7 +10509,7 @@
         <v>-7276</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>44228</v>
       </c>
@@ -10509,7 +10531,7 @@
         <v>-7432</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>44229</v>
       </c>
@@ -10534,7 +10556,7 @@
         <v>-15526</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>44230</v>
       </c>
@@ -10559,7 +10581,7 @@
         <v>630530</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>44231</v>
       </c>
@@ -10581,7 +10603,7 @@
         <v>370161</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>44232</v>
       </c>
@@ -10603,7 +10625,7 @@
         <v>1000691</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>44232</v>
       </c>
@@ -10618,7 +10640,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>44243</v>
       </c>
@@ -10630,7 +10652,7 @@
         <v>-5624</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>44244</v>
       </c>
@@ -10645,7 +10667,7 @@
         <v>-353002</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>44245</v>
       </c>
@@ -10660,7 +10682,7 @@
         <v>-375033</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>44250</v>
       </c>
@@ -10675,7 +10697,7 @@
         <v>-156221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>44251</v>
       </c>
@@ -10693,7 +10715,7 @@
         <v>163481</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>44253</v>
       </c>
@@ -10711,7 +10733,7 @@
         <v>1086676</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>44257</v>
       </c>
@@ -10726,7 +10748,7 @@
         <v>-308438</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>44257</v>
       </c>
@@ -10741,7 +10763,7 @@
         <v>-172745</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>44257</v>
       </c>
@@ -10756,7 +10778,7 @@
         <v>-731790</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>44257</v>
       </c>
@@ -10771,7 +10793,7 @@
         <v>-174247</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>44257</v>
       </c>
@@ -10786,7 +10808,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>44258</v>
       </c>
@@ -10804,7 +10826,7 @@
         <v>301162</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>44259</v>
       </c>
@@ -10819,7 +10841,7 @@
         <v>-225921</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>44260</v>
       </c>
@@ -10834,7 +10856,7 @@
         <v>10996</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>44274</v>
       </c>
@@ -10852,7 +10874,7 @@
         <v>186671</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>44277</v>
       </c>
@@ -10870,7 +10892,7 @@
         <v>1132468</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>44277</v>
       </c>
@@ -10885,7 +10907,7 @@
         <v>-678464</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>44278</v>
       </c>
@@ -10900,7 +10922,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>44279</v>
       </c>
@@ -10915,7 +10937,7 @@
         <v>-649423</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>44280</v>
       </c>
@@ -10933,7 +10955,7 @@
         <v>493806</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>44280</v>
       </c>
@@ -10948,7 +10970,7 @@
         <v>-84219</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>44280</v>
       </c>
@@ -10963,7 +10985,7 @@
         <v>-211551</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>44281</v>
       </c>
@@ -10978,7 +11000,7 @@
         <v>-254762</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>44286</v>
       </c>
@@ -10996,7 +11018,7 @@
         <v>1246063</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>44286</v>
       </c>
@@ -11011,7 +11033,7 @@
         <v>-1306859</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>44287</v>
       </c>
@@ -11029,7 +11051,7 @@
         <v>1369713</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>44287</v>
       </c>
@@ -11044,7 +11066,7 @@
         <v>-8941</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="18" customHeight="1">
       <c r="A57" s="2">
         <v>44292</v>
       </c>
@@ -11059,7 +11081,7 @@
         <v>9733</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>44292</v>
       </c>
@@ -11074,7 +11096,7 @@
         <v>-167738</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>44293</v>
       </c>
@@ -11089,7 +11111,7 @@
         <v>-337980</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>44293</v>
       </c>
@@ -11104,7 +11126,7 @@
         <v>-849858</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>44312</v>
       </c>
@@ -11119,7 +11141,7 @@
         <v>-36051</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>44320</v>
       </c>
@@ -11137,7 +11159,7 @@
         <v>1792155</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>44321</v>
       </c>
@@ -11152,7 +11174,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <v>44321</v>
       </c>
@@ -11167,7 +11189,7 @@
         <v>-168740</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="2">
         <v>44321</v>
       </c>
@@ -11182,7 +11204,7 @@
         <v>-167738</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="2">
         <v>44321</v>
       </c>
@@ -11197,7 +11219,7 @@
         <v>-168239</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="2">
         <v>44321</v>
       </c>
@@ -11212,7 +11234,7 @@
         <v>-237838</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" s="2">
         <v>44321</v>
       </c>
@@ -11227,7 +11249,7 @@
         <v>-237838</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" s="2">
         <v>44321</v>
       </c>
@@ -11242,7 +11264,7 @@
         <v>-146458</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" s="2">
         <v>44321</v>
       </c>
@@ -11257,7 +11279,7 @@
         <v>-97739</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" s="2">
         <v>44322</v>
       </c>
@@ -11272,7 +11294,7 @@
         <v>-510726</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="19.5" customHeight="1">
       <c r="A72" s="2">
         <v>44326</v>
       </c>
@@ -11287,7 +11309,7 @@
         <v>-47517</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" s="2">
         <v>44333</v>
       </c>
@@ -11302,7 +11324,7 @@
         <v>-40357</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" s="2">
         <v>44349</v>
       </c>
@@ -11320,7 +11342,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="2">
         <v>44368</v>
       </c>
@@ -11335,7 +11357,7 @@
         <v>-41659</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" s="2">
         <v>44369</v>
       </c>
@@ -11360,7 +11382,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" s="2">
         <v>44369</v>
       </c>
@@ -11375,7 +11397,7 @@
         <v>-112159</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" s="2">
         <v>44369</v>
       </c>
@@ -11390,7 +11412,7 @@
         <v>-500512</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" s="2">
         <v>44382</v>
       </c>
@@ -11405,7 +11427,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" s="2">
         <v>44390</v>
       </c>
@@ -11424,7 +11446,7 @@
       </c>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" s="2">
         <v>44390</v>
       </c>
@@ -11439,7 +11461,7 @@
         <v>-44513</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" s="2">
         <v>44390</v>
       </c>
@@ -11454,7 +11476,7 @@
         <v>-44363</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" s="2">
         <v>44393</v>
       </c>
@@ -11475,7 +11497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" s="2">
         <v>44393</v>
       </c>
@@ -11492,7 +11514,7 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" s="2">
         <v>44397</v>
       </c>
@@ -11510,7 +11532,7 @@
         <v>235455</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" s="2">
         <v>44397</v>
       </c>
@@ -11532,7 +11554,7 @@
       </c>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" s="2">
         <v>44397</v>
       </c>
@@ -11554,7 +11576,7 @@
       </c>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" s="2">
         <v>44399</v>
       </c>
@@ -11571,7 +11593,7 @@
       <c r="I88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" s="2">
         <v>44400</v>
       </c>
@@ -11591,7 +11613,7 @@
       <c r="I89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" s="2">
         <v>44399</v>
       </c>
@@ -11608,7 +11630,7 @@
       <c r="I90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" s="2">
         <v>44400</v>
       </c>
@@ -11628,7 +11650,7 @@
       <c r="I91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" s="2">
         <v>44404</v>
       </c>
@@ -11645,7 +11667,7 @@
       <c r="I92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" s="2">
         <v>44405</v>
       </c>
@@ -11665,7 +11687,7 @@
       <c r="I93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" s="2">
         <v>44412</v>
       </c>
@@ -11682,7 +11704,7 @@
       <c r="I94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="2">
         <v>44445</v>
       </c>
@@ -11699,7 +11721,7 @@
       <c r="I95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="2">
         <v>44447</v>
       </c>
@@ -11716,7 +11738,7 @@
       <c r="I96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>44449</v>
       </c>
@@ -11733,7 +11755,7 @@
       <c r="I97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>44455</v>
       </c>
@@ -11750,7 +11772,7 @@
       <c r="I98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>44466</v>
       </c>
@@ -11767,7 +11789,7 @@
       <c r="I99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>44470</v>
       </c>
@@ -11784,7 +11806,7 @@
       <c r="I100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>44470</v>
       </c>
@@ -11801,7 +11823,7 @@
       <c r="I101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>44470</v>
       </c>
@@ -11818,7 +11840,7 @@
       <c r="I102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>44473</v>
       </c>
@@ -11835,7 +11857,7 @@
       <c r="I103" s="3"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>44474</v>
       </c>
@@ -11852,7 +11874,7 @@
       <c r="I104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>44505</v>
       </c>
@@ -11869,7 +11891,7 @@
       <c r="I105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>44505</v>
       </c>
@@ -11886,7 +11908,7 @@
       <c r="I106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>44518</v>
       </c>
@@ -11903,7 +11925,7 @@
       <c r="I107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>44518</v>
       </c>
@@ -11923,7 +11945,7 @@
       <c r="I108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>44518</v>
       </c>
@@ -11940,7 +11962,7 @@
       <c r="I109" s="3"/>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>44525</v>
       </c>
@@ -11957,7 +11979,7 @@
       <c r="I110" s="3"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>44535</v>
       </c>
@@ -11974,7 +11996,7 @@
       <c r="I111" s="3"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>44547</v>
       </c>
@@ -11991,42 +12013,42 @@
       <c r="I112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="I113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="I114" s="3"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="I115" s="3"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="I116" s="3"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="I117" s="3"/>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="3" t="s">
         <v>37</v>
       </c>
@@ -12034,7 +12056,7 @@
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -12051,7 +12073,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -12064,7 +12086,7 @@
         <v>1.8894903715860811E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -12076,14 +12098,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="C122"/>
       <c r="E122" s="3">
         <f>SUM(D119:E119)</f>
         <v>2191067</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="I123" t="s">
         <v>79</v>
       </c>
@@ -12112,11 +12134,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
@@ -12127,7 +12149,7 @@
     <col min="11" max="17" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -12144,7 +12166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="C2" s="3"/>
       <c r="F2" t="s">
         <v>52</v>
@@ -12183,7 +12205,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -12195,7 +12217,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -12206,7 +12228,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="B5" t="s">
         <v>92</v>
       </c>
@@ -12217,7 +12239,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -12261,7 +12283,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>46</v>
@@ -12290,7 +12312,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>77</v>
@@ -12316,7 +12338,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>91</v>
@@ -12339,7 +12361,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="2"/>
       <c r="C10" s="3">
         <v>-5600</v>
@@ -12350,7 +12372,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -12393,7 +12415,7 @@
         <v>-13630</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>44573</v>
       </c>
@@ -12409,7 +12431,7 @@
         <v>-891354</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>44578</v>
       </c>
@@ -12425,7 +12447,7 @@
         <v>-148059</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>44600</v>
       </c>
@@ -12443,7 +12465,7 @@
         <v>584009</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>44600</v>
       </c>
@@ -12462,7 +12484,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>44601</v>
       </c>
@@ -12480,7 +12502,7 @@
         <v>445481</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>44601</v>
       </c>
@@ -12496,7 +12518,7 @@
         <v>-458182</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>44617</v>
       </c>
@@ -12514,7 +12536,7 @@
         <v>1040452</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>44617</v>
       </c>
@@ -12530,7 +12552,7 @@
         <v>-430671</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>44617</v>
       </c>
@@ -12546,7 +12568,7 @@
         <v>-284113</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>44617</v>
       </c>
@@ -12562,7 +12584,7 @@
         <v>-141556</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>44621</v>
       </c>
@@ -12578,7 +12600,7 @@
         <v>-140556</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>44627</v>
       </c>
@@ -12594,7 +12616,7 @@
         <v>-53421</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>44642</v>
       </c>
@@ -12612,7 +12634,7 @@
         <v>53815</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>44645</v>
       </c>
@@ -12628,7 +12650,7 @@
         <v>-124049</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>44672</v>
       </c>
@@ -12646,7 +12668,7 @@
         <v>126071</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>44672</v>
       </c>
@@ -12662,7 +12684,7 @@
         <v>-136554</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>44672</v>
       </c>
@@ -12680,7 +12702,7 @@
         <v>27308</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>44719</v>
       </c>
@@ -12698,7 +12720,7 @@
         <v>12827</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>44732</v>
       </c>
@@ -12714,7 +12736,7 @@
         <v>-18487</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="33" customHeight="1">
       <c r="A31" s="2">
         <v>44740</v>
       </c>
@@ -12732,7 +12754,7 @@
         <v>258120</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="33" customHeight="1">
       <c r="A32" s="2">
         <v>44740</v>
       </c>
@@ -12750,7 +12772,7 @@
         <v>129060</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="33" customHeight="1">
       <c r="A33" s="2">
         <v>44740</v>
       </c>
@@ -12768,7 +12790,7 @@
         <v>129060</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="33" customHeight="1">
       <c r="A34" s="2">
         <v>44740</v>
       </c>
@@ -12786,7 +12808,7 @@
         <v>129060</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>44740</v>
       </c>
@@ -12804,7 +12826,7 @@
         <v>258120</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>44740</v>
       </c>
@@ -12820,7 +12842,7 @@
         <v>-822744</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>44741</v>
       </c>
@@ -12835,7 +12857,7 @@
         <v>-19432</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>44742</v>
       </c>
@@ -12853,7 +12875,7 @@
         <v>126569</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>44742</v>
       </c>
@@ -12869,7 +12891,7 @@
         <v>-173069</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>44762</v>
       </c>
@@ -12887,7 +12909,7 @@
         <v>178991</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>44762</v>
       </c>
@@ -12903,7 +12925,7 @@
         <v>-173469</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>44783</v>
       </c>
@@ -12921,7 +12943,7 @@
         <v>1003080</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>44789</v>
       </c>
@@ -12937,7 +12959,7 @@
         <v>-1042045</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>44816</v>
       </c>
@@ -12952,7 +12974,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>44816</v>
       </c>
@@ -12967,7 +12989,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>44820</v>
       </c>
@@ -12982,7 +13004,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>44820</v>
       </c>
@@ -12998,7 +13020,7 @@
         <v>-137195</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>44820</v>
       </c>
@@ -13013,7 +13035,7 @@
         <v>-3301</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>44824</v>
       </c>
@@ -13031,7 +13053,7 @@
         <v>825186</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>44824</v>
       </c>
@@ -13046,7 +13068,7 @@
         <v>-11589</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="21.75" customHeight="1">
       <c r="A51" s="2">
         <v>44825</v>
       </c>
@@ -13061,7 +13083,7 @@
         <v>25693</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="21.75" customHeight="1">
       <c r="A52" s="2">
         <v>44826</v>
       </c>
@@ -13077,7 +13099,7 @@
         <v>-130185</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="21.75" customHeight="1">
       <c r="A53" s="2">
         <v>44830</v>
       </c>
@@ -13092,7 +13114,7 @@
         <v>-48337</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="21.75" customHeight="1">
       <c r="A54" s="2">
         <v>44830</v>
       </c>
@@ -13108,7 +13130,7 @@
         <v>-615245</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="21.75" customHeight="1">
       <c r="A55" s="2">
         <v>44831</v>
       </c>
@@ -13123,7 +13145,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="21.75" customHeight="1">
       <c r="A56" s="2">
         <v>44831</v>
       </c>
@@ -13138,7 +13160,7 @@
         <v>-14496</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="21.75" customHeight="1">
       <c r="A57" s="2">
         <v>44831</v>
       </c>
@@ -13153,7 +13175,7 @@
         <v>-11187</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="21.75" customHeight="1">
       <c r="A58" s="2">
         <v>44839</v>
       </c>
@@ -13168,7 +13190,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="21.75" customHeight="1">
       <c r="A59" s="2">
         <v>44845</v>
       </c>
@@ -13184,7 +13206,7 @@
         <v>-11254</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="21.75" customHeight="1">
       <c r="A60" s="2">
         <v>44846</v>
       </c>
@@ -13199,7 +13221,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="21.75" customHeight="1">
       <c r="A61" s="2">
         <v>44850</v>
       </c>
@@ -13215,7 +13237,7 @@
         <v>-22308</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="21.75" customHeight="1">
       <c r="A62" s="2">
         <v>44886</v>
       </c>
@@ -13231,51 +13253,51 @@
         <v>-11754</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="21.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="21.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="21.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="21.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="21.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="3" t="s">
         <v>37</v>
       </c>
@@ -13285,7 +13307,7 @@
       <c r="E70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -13303,7 +13325,7 @@
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -13318,7 +13340,7 @@
       </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -13331,7 +13353,7 @@
       </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="C74" s="3"/>
       <c r="E74" s="3">
         <f>SUM(D71:E71)</f>
@@ -13339,55 +13361,55 @@
       </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" s="2"/>
       <c r="C81" s="3"/>
       <c r="E81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -13395,305 +13417,305 @@
       <c r="H82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14">
       <c r="A131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -13702,13 +13724,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -13718,50 +13740,50 @@
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14">
       <c r="A137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14">
       <c r="A138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14">
       <c r="A141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -13769,27 +13791,27 @@
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14">
       <c r="A143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14">
       <c r="A144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -13797,7 +13819,7 @@
       <c r="I146" s="3"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -13805,7 +13827,7 @@
       <c r="I147" s="3"/>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -13813,7 +13835,7 @@
       <c r="I148" s="3"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -13821,7 +13843,7 @@
       <c r="I149" s="3"/>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -13829,7 +13851,7 @@
       <c r="I150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -13837,7 +13859,7 @@
       <c r="I151" s="3"/>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" s="2"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -13845,7 +13867,7 @@
       <c r="I152" s="3"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="2"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -13853,7 +13875,7 @@
       <c r="I153" s="3"/>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="2"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -13861,7 +13883,7 @@
       <c r="I154" s="3"/>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" s="2"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -13869,7 +13891,7 @@
       <c r="I155" s="3"/>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" s="2"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -13877,7 +13899,7 @@
       <c r="I156" s="3"/>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" s="2"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -13885,7 +13907,7 @@
       <c r="I157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" s="2"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -13893,7 +13915,7 @@
       <c r="I158" s="3"/>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -13901,7 +13923,7 @@
       <c r="I159" s="3"/>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -13909,7 +13931,7 @@
       <c r="I160" s="3"/>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -13917,7 +13939,7 @@
       <c r="I161" s="3"/>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="2"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -13925,7 +13947,7 @@
       <c r="I162" s="3"/>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163" s="2"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -13933,7 +13955,7 @@
       <c r="I163" s="3"/>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164" s="2"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -13941,7 +13963,7 @@
       <c r="I164" s="3"/>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" s="2"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -13949,7 +13971,7 @@
       <c r="I165" s="3"/>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166" s="2"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -13957,7 +13979,7 @@
       <c r="I166" s="3"/>
       <c r="K166" s="3"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167" s="2"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -13965,7 +13987,7 @@
       <c r="I167" s="3"/>
       <c r="K167" s="3"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168" s="2"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -13973,7 +13995,7 @@
       <c r="I168" s="3"/>
       <c r="K168" s="3"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3">
       <c r="C179" s="7">
         <f>'2022已實現損益'!C73</f>
         <v>-8.3564830287945535E-2</v>
@@ -13992,11 +14014,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
@@ -14007,7 +14029,7 @@
     <col min="11" max="18" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -14024,7 +14046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="C2" s="3"/>
       <c r="F2" t="s">
         <v>52</v>
@@ -14063,7 +14085,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -14075,7 +14097,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -14117,7 +14139,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -14144,7 +14166,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -14167,7 +14189,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -14214,7 +14236,7 @@
         <v>-13726</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
         <v>124</v>
       </c>
@@ -14236,7 +14258,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>125</v>
       </c>
@@ -14256,7 +14278,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>99</v>
@@ -14283,7 +14305,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>44565</v>
       </c>
@@ -14309,7 +14331,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>44567</v>
       </c>
@@ -14335,7 +14357,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>44571</v>
       </c>
@@ -14353,7 +14375,7 @@
         <v>716608</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>44591</v>
       </c>
@@ -14369,7 +14391,7 @@
         <v>-586835</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>44593</v>
       </c>
@@ -14386,7 +14408,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>44607</v>
       </c>
@@ -14409,7 +14431,7 @@
         <v>192772</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>44633</v>
       </c>
@@ -14427,7 +14449,7 @@
         <v>69813</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>44635</v>
       </c>
@@ -14443,7 +14465,7 @@
         <v>-140199</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>44669</v>
       </c>
@@ -14461,7 +14483,7 @@
         <v>112318</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>44670</v>
       </c>
@@ -14484,7 +14506,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>44672</v>
       </c>
@@ -14508,7 +14530,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>44677</v>
       </c>
@@ -14534,7 +14556,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>44689</v>
       </c>
@@ -14560,7 +14582,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>44728</v>
       </c>
@@ -14585,7 +14607,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>44731</v>
       </c>
@@ -14609,7 +14631,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>44739</v>
       </c>
@@ -14635,7 +14657,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>44752</v>
       </c>
@@ -14659,7 +14681,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>44759</v>
       </c>
@@ -14683,7 +14705,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>44763</v>
       </c>
@@ -14707,7 +14729,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>44777</v>
       </c>
@@ -14733,7 +14755,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>44789</v>
       </c>
@@ -14757,7 +14779,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>44801</v>
       </c>
@@ -14781,7 +14803,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>45188</v>
       </c>
@@ -14807,7 +14829,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>45190</v>
       </c>
@@ -14831,7 +14853,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>45191</v>
       </c>
@@ -14854,7 +14876,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>45210</v>
       </c>
@@ -14878,7 +14900,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>45238</v>
       </c>
@@ -14904,7 +14926,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -14918,7 +14940,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -14932,7 +14954,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -14946,7 +14968,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -14960,10 +14982,10 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -14972,7 +14994,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -14989,7 +15011,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -15003,7 +15025,7 @@
         <v>6.1976944462311409E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -15015,7 +15037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="C47" s="3"/>
       <c r="E47" s="3">
         <f>SUM(D44:E44)</f>
@@ -15033,13 +15055,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
@@ -15050,7 +15072,7 @@
     <col min="9" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -15067,7 +15089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="C2" s="3"/>
       <c r="F2" t="s">
         <v>52</v>
@@ -15106,7 +15128,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -15118,24 +15140,28 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="17.25" customHeight="1">
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <f>SUM(F4:Q4)</f>
-        <v>11378</v>
+        <v>27404</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
         <v>11277</v>
       </c>
       <c r="H4" s="3">
-        <v>101</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>15989</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -15144,7 +15170,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -15169,7 +15195,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -15187,7 +15213,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
       <c r="B7" t="s">
         <v>131</v>
       </c>
@@ -15207,7 +15233,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
       <c r="B8" t="s">
         <v>132</v>
       </c>
@@ -15227,12 +15253,12 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <f>SUM(F9:R9)</f>
-        <v>-46046</v>
+        <v>-73392</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
@@ -15244,8 +15270,12 @@
       <c r="I9" s="3">
         <v>-18682</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="3">
+        <v>-13673</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-13673</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -15253,7 +15283,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>133</v>
@@ -15272,7 +15302,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>136</v>
@@ -15293,7 +15323,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>137</v>
@@ -15314,11 +15344,16 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>-30000</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -15327,22 +15362,17 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>45337</v>
-      </c>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="3">
-        <v>15606</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3">
-        <f t="shared" ref="E14:E17" si="0">-D14</f>
-        <v>-15606</v>
+        <v>-10000</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -15350,25 +15380,15 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>45338</v>
-      </c>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="3">
-        <v>490</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-15606</v>
+        <v>140</v>
       </c>
       <c r="E15" s="3">
-        <f>$C15+ABS($D15)</f>
-        <v>16096</v>
+        <v>30000</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -15376,22 +15396,13 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>45363</v>
-      </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="3">
-        <v>16823</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>-16823</v>
-      </c>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -15399,19 +15410,19 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>45369</v>
+        <v>45337</v>
       </c>
       <c r="B17" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="3">
-        <v>66294</v>
+        <v>15606</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>-66294</v>
+        <f t="shared" ref="E17:E22" si="0">-D17</f>
+        <v>-15606</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -15422,22 +15433,22 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>45398</v>
+        <v>45338</v>
       </c>
       <c r="B18" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="3">
-        <v>-4236</v>
+        <v>490</v>
       </c>
       <c r="D18" s="3">
-        <v>-83385</v>
+        <v>-15606</v>
       </c>
       <c r="E18" s="3">
         <f>$C18+ABS($D18)</f>
-        <v>79149</v>
+        <v>16096</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -15448,10 +15459,20 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="3">
+        <v>16823</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>-16823</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -15461,10 +15482,20 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="3">
+        <v>66294</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>-66294</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -15474,66 +15505,194 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
+      <c r="A21" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-4236</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-83385</v>
+      </c>
+      <c r="E21" s="3">
+        <f>$C21+ABS($D21)</f>
+        <v>79149</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="3">
+        <v>78281</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>-78281</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="3">
+        <v>570</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-46968</v>
+      </c>
+      <c r="E23" s="3">
+        <f>$C23+ABS($D23)</f>
+        <v>47538</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="3">
+        <v>480</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-31313</v>
+      </c>
+      <c r="E24" s="3">
+        <f>$C24+ABS($D24)</f>
+        <v>31793</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3">
-        <f>SUM(C3:C21)</f>
-        <v>-3746</v>
-      </c>
-      <c r="D23" s="3">
-        <f>SUM(D3:D22)</f>
+      <c r="C29" s="3">
+        <f>SUM(C3:C27)</f>
+        <v>-2696</v>
+      </c>
+      <c r="D29" s="3">
+        <f>SUM(D3:D28)</f>
         <v>3495639</v>
       </c>
-      <c r="E23" s="3">
-        <f>SUM(E3:E22)</f>
-        <v>81275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E29" s="3">
+        <f>SUM(E3:E28)</f>
+        <v>61005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7">
-        <f>D23/E26</f>
-        <v>0.97727789932886278</v>
-      </c>
-      <c r="E24" s="7">
-        <f>E23/E26</f>
-        <v>2.2722100671137186E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="7">
+        <f>D29/E32</f>
+        <v>0.98284759453012449</v>
+      </c>
+      <c r="E30" s="7">
+        <f>E29/E32</f>
+        <v>1.7152405469875533E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="7">
-        <f>C23/(E26-C23)</f>
-        <v>-1.0461758446766796E-3</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C31" s="7">
+        <f>C29/(E32-C29)</f>
+        <v>-7.5744379575988811E-4</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="E26" s="3">
-        <f>SUM(D23:E23)</f>
-        <v>3576914</v>
+    <row r="32" spans="1:13">
+      <c r="C32" s="3"/>
+      <c r="E32" s="3">
+        <f>SUM(D29:E29)</f>
+        <v>3556644</v>
       </c>
     </row>
   </sheetData>
